--- a/Data/Regression/news_index_dire_lex_PMI.xlsx
+++ b/Data/Regression/news_index_dire_lex_PMI.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.01660442317138576</v>
+        <v>0.01588128538053636</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.06622429855779322</v>
+        <v>0.120649574480869</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01786762022478474</v>
+        <v>0.1172459234076447</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.05450844101431312</v>
+        <v>0.03362281253861352</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.00963285490662321</v>
+        <v>-0.06616696397561934</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.009587250180139461</v>
+        <v>0.01622615256451137</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.04459015510007504</v>
+        <v>0.05729153944980579</v>
       </c>
     </row>
     <row r="9">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.06294317127436055</v>
+        <v>0.1060239209821415</v>
       </c>
     </row>
     <row r="10">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.02219487904073185</v>
+        <v>0.02478266488550333</v>
       </c>
     </row>
     <row r="11">
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.01140040722100056</v>
+        <v>0.003459319751536533</v>
       </c>
     </row>
     <row r="12">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0384592909678626</v>
+        <v>0.02953743925986168</v>
       </c>
     </row>
     <row r="13">
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.01455307047156202</v>
+        <v>0.009929531518342749</v>
       </c>
     </row>
     <row r="14">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.03730797478483836</v>
+        <v>-0.03107350011011525</v>
       </c>
     </row>
     <row r="15">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.09217787716341266</v>
+        <v>0.1016107315397433</v>
       </c>
     </row>
     <row r="16">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.06975254677311618</v>
+        <v>0.1019727158593348</v>
       </c>
     </row>
     <row r="17">
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.03587259753524293</v>
+        <v>0.04503399680296997</v>
       </c>
     </row>
     <row r="18">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.02594611529778755</v>
+        <v>0.03273829308936808</v>
       </c>
     </row>
     <row r="19">
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.003049131978410488</v>
+        <v>0.05629295607310071</v>
       </c>
     </row>
     <row r="20">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.02279674342178417</v>
+        <v>-0.01261143448814844</v>
       </c>
     </row>
     <row r="21">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.005163952357607306</v>
+        <v>2.327419317939075e-05</v>
       </c>
     </row>
     <row r="22">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.03008840281873365</v>
+        <v>-0.05130294329445269</v>
       </c>
     </row>
     <row r="23">
@@ -662,7 +662,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.03175116640945187</v>
+        <v>0.03259023064521257</v>
       </c>
     </row>
     <row r="24">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.004817971906260211</v>
+        <v>0.07050938270079056</v>
       </c>
     </row>
     <row r="25">
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.02287459894570339</v>
+        <v>0.1108973714883216</v>
       </c>
     </row>
     <row r="26">
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.003508299591698559</v>
+        <v>0.06205861835220498</v>
       </c>
     </row>
     <row r="27">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.06995474219806863</v>
+        <v>0.1127468170189362</v>
       </c>
     </row>
     <row r="28">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.03616749484884154</v>
+        <v>0.07142468087083266</v>
       </c>
     </row>
     <row r="29">
@@ -722,7 +722,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-0.0115338659527535</v>
+        <v>0.02104860380867144</v>
       </c>
     </row>
     <row r="30">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.007116222264962065</v>
+        <v>-0.009054496615094916</v>
       </c>
     </row>
     <row r="31">
@@ -742,7 +742,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.01999733703177015</v>
+        <v>-0.006728737392254013</v>
       </c>
     </row>
     <row r="32">
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-0.0003156058511555197</v>
+        <v>-0.01476108133066042</v>
       </c>
     </row>
     <row r="33">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-0.003386202516359464</v>
+        <v>0.04612361996203351</v>
       </c>
     </row>
     <row r="34">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-0.001433932886664001</v>
+        <v>-0.03112209744364968</v>
       </c>
     </row>
     <row r="35">
@@ -782,7 +782,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.02194021263811986</v>
+        <v>-0.01536197577891128</v>
       </c>
     </row>
     <row r="36">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-0.0174697322818105</v>
+        <v>0.03808643614096944</v>
       </c>
     </row>
     <row r="37">
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-0.02703762229432794</v>
+        <v>0.100639837090751</v>
       </c>
     </row>
     <row r="38">
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.007973197488624188</v>
+        <v>0.02862412553568296</v>
       </c>
     </row>
     <row r="39">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-0.006233421201773937</v>
+        <v>-0.009467213379200274</v>
       </c>
     </row>
     <row r="40">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-0.001119816567522483</v>
+        <v>0.04143582932252413</v>
       </c>
     </row>
     <row r="41">
@@ -842,7 +842,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-0.02214630461125824</v>
+        <v>0.003335276398219128</v>
       </c>
     </row>
     <row r="42">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.001798249134165508</v>
+        <v>-0.03305150307548609</v>
       </c>
     </row>
     <row r="43">
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-0.01085235844278856</v>
+        <v>-0.009487457491164969</v>
       </c>
     </row>
     <row r="44">
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.04099093685833441</v>
+        <v>0.1214548620363249</v>
       </c>
     </row>
     <row r="45">
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>-0.006238123735118234</v>
+        <v>0.01202074261489363</v>
       </c>
     </row>
     <row r="46">
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.0004608442622726346</v>
+        <v>-0.01486454468179869</v>
       </c>
     </row>
     <row r="47">
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-0.02098733464581735</v>
+        <v>-0.04275158265966123</v>
       </c>
     </row>
     <row r="48">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>-0.01267241634627282</v>
+        <v>0.01170247864396977</v>
       </c>
     </row>
     <row r="49">
@@ -922,7 +922,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>-0.01247929717299356</v>
+        <v>-0.05430711290276979</v>
       </c>
     </row>
     <row r="50">
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.01424572306488947</v>
+        <v>-0.0007866777656479523</v>
       </c>
     </row>
     <row r="51">
@@ -942,7 +942,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.03243124010430585</v>
+        <v>0.008792439453664347</v>
       </c>
     </row>
     <row r="52">
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.01984229008903397</v>
+        <v>-0.01698194802887979</v>
       </c>
     </row>
     <row r="53">
@@ -962,7 +962,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.007098538624897976</v>
+        <v>-0.04322105555642389</v>
       </c>
     </row>
     <row r="54">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>-0.04403709221995174</v>
+        <v>-0.002375049185211558</v>
       </c>
     </row>
     <row r="55">
@@ -982,7 +982,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>-0.03191242153378335</v>
+        <v>-0.007934319205598457</v>
       </c>
     </row>
     <row r="56">
@@ -992,7 +992,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.00336456235865599</v>
+        <v>0.004341750710268218</v>
       </c>
     </row>
     <row r="57">
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>-0.009977875318151176</v>
+        <v>-0.05116249258566256</v>
       </c>
     </row>
     <row r="58">
@@ -1012,7 +1012,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.01025435484572759</v>
+        <v>0.07795829771812048</v>
       </c>
     </row>
     <row r="59">
@@ -1022,7 +1022,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>-0.04871494893044012</v>
+        <v>0.06185743273801152</v>
       </c>
     </row>
     <row r="60">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>-0.03747533465565926</v>
+        <v>-0.02334518919429414</v>
       </c>
     </row>
     <row r="61">
@@ -1042,7 +1042,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>-0.04303329708922474</v>
+        <v>-0.1047353735797158</v>
       </c>
     </row>
     <row r="62">
@@ -1052,7 +1052,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>-0.01649118858057998</v>
+        <v>-0.05296805282629691</v>
       </c>
     </row>
     <row r="63">
@@ -1062,7 +1062,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.03493769980105861</v>
+        <v>-0.2023487981536082</v>
       </c>
     </row>
     <row r="64">
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.01432373487786548</v>
+        <v>0.02797781417368423</v>
       </c>
     </row>
     <row r="65">
@@ -1082,7 +1082,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>-0.0007762112037243624</v>
+        <v>-0.03498913895564656</v>
       </c>
     </row>
     <row r="66">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>-0.06373654597913783</v>
+        <v>-0.07934249649243184</v>
       </c>
     </row>
     <row r="67">
@@ -1102,7 +1102,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.02140919901411147</v>
+        <v>0.05166430771416761</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>-0.04489736545606908</v>
+        <v>0.1275736826899471</v>
       </c>
     </row>
     <row r="69">
@@ -1122,7 +1122,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>-0.001223456301599745</v>
+        <v>-0.1093922305866375</v>
       </c>
     </row>
     <row r="70">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.0009775742553767483</v>
+        <v>0.03876367296466995</v>
       </c>
     </row>
     <row r="71">
@@ -1142,7 +1142,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>-0.02331146503821962</v>
+        <v>-0.09804746428141915</v>
       </c>
     </row>
     <row r="72">
@@ -1152,7 +1152,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>-0.01545118652720543</v>
+        <v>0.08120197858216836</v>
       </c>
     </row>
     <row r="73">
@@ -1162,7 +1162,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>-0.001238355433663602</v>
+        <v>0.03426621146065369</v>
       </c>
     </row>
     <row r="74">
@@ -1172,7 +1172,7 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.01642441197577667</v>
+        <v>0.06935518206552153</v>
       </c>
     </row>
     <row r="75">
@@ -1182,7 +1182,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.02232376975142536</v>
+        <v>0.00810578403576221</v>
       </c>
     </row>
     <row r="76">
@@ -1192,7 +1192,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.003767367683938801</v>
+        <v>-0.03384171508819103</v>
       </c>
     </row>
     <row r="77">
@@ -1202,7 +1202,7 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>-0.05159365241388958</v>
+        <v>-0.03861357045215753</v>
       </c>
     </row>
     <row r="78">
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.05258383040866983</v>
+        <v>0.1020835664900099</v>
       </c>
     </row>
     <row r="79">
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>-0.0004982838084656151</v>
+        <v>7.632779157531836e-05</v>
       </c>
     </row>
     <row r="80">
@@ -1232,7 +1232,7 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>-0.01854027880683875</v>
+        <v>0.08176151608917363</v>
       </c>
     </row>
     <row r="81">
@@ -1242,7 +1242,7 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.01621017961606017</v>
+        <v>-0.001828761688699756</v>
       </c>
     </row>
     <row r="82">
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.02967904063046979</v>
+        <v>0.00986609435689049</v>
       </c>
     </row>
     <row r="83">
@@ -1262,7 +1262,7 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>-0.04324443860113689</v>
+        <v>0.007658647138912911</v>
       </c>
     </row>
     <row r="84">
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>-0.009259504966921678</v>
+        <v>0.06450897992904323</v>
       </c>
     </row>
     <row r="85">
@@ -1282,7 +1282,7 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>-0.05122839957174402</v>
+        <v>-0.0270018922934402</v>
       </c>
     </row>
     <row r="86">
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>-0.02997669404506212</v>
+        <v>-0.01819998200243321</v>
       </c>
     </row>
     <row r="87">
@@ -1302,7 +1302,7 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>-0.04939860190720392</v>
+        <v>-0.04181338311359872</v>
       </c>
     </row>
     <row r="88">
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.01483423714196689</v>
+        <v>0.04323897436935342</v>
       </c>
     </row>
     <row r="89">
@@ -1322,7 +1322,7 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>-0.03049765962800999</v>
+        <v>0.04690243032936183</v>
       </c>
     </row>
     <row r="90">
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>-0.066699888107741</v>
+        <v>0.004433640789715681</v>
       </c>
     </row>
     <row r="91">
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>-0.0004459914682166303</v>
+        <v>0.01152970114340863</v>
       </c>
     </row>
     <row r="92">
@@ -1352,7 +1352,7 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>-0.0173118271529163</v>
+        <v>-0.0006013727279149089</v>
       </c>
     </row>
     <row r="93">
@@ -1362,7 +1362,7 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>-0.02880889895358801</v>
+        <v>0.008053062348908563</v>
       </c>
     </row>
     <row r="94">
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>-0.0589732005775411</v>
+        <v>0.04718138638173875</v>
       </c>
     </row>
     <row r="95">
@@ -1382,7 +1382,7 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>-0.06839624765483175</v>
+        <v>-0.0352459276256905</v>
       </c>
     </row>
     <row r="96">
@@ -1392,7 +1392,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.0330779170770157</v>
+        <v>0.06435732062654066</v>
       </c>
     </row>
     <row r="97">
@@ -1402,7 +1402,7 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>-0.07267574709532029</v>
+        <v>-0.08850389295810057</v>
       </c>
     </row>
     <row r="98">
@@ -1412,7 +1412,7 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>-0.01928170550636354</v>
+        <v>-0.03964750845277068</v>
       </c>
     </row>
     <row r="99">
@@ -1422,7 +1422,7 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>-0.01718100044459163</v>
+        <v>-0.01508479156479053</v>
       </c>
     </row>
     <row r="100">
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>-0.01671546779406524</v>
+        <v>-0.01762407434877515</v>
       </c>
     </row>
     <row r="101">
@@ -1442,7 +1442,7 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.07969923031649846</v>
+        <v>0.04966289106485188</v>
       </c>
     </row>
     <row r="102">
@@ -1452,7 +1452,7 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.07912388904696455</v>
+        <v>0.08047292484096075</v>
       </c>
     </row>
     <row r="103">
@@ -1462,7 +1462,7 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0.05927074343336173</v>
+        <v>0.03905155260080898</v>
       </c>
     </row>
     <row r="104">
@@ -1472,7 +1472,7 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>-0.003236139493511868</v>
+        <v>0.04513300823186083</v>
       </c>
     </row>
     <row r="105">
@@ -1482,7 +1482,7 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0.01243204224928415</v>
+        <v>0.08994723440618518</v>
       </c>
     </row>
     <row r="106">
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0.02737813037717242</v>
+        <v>0.1169002505137033</v>
       </c>
     </row>
     <row r="107">
@@ -1502,7 +1502,7 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>-0.03112789237279097</v>
+        <v>0.07314868232913969</v>
       </c>
     </row>
     <row r="108">
@@ -1512,7 +1512,7 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0.02806679524042806</v>
+        <v>-0.04301688900213899</v>
       </c>
     </row>
     <row r="109">
@@ -1522,7 +1522,7 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0.01206090887904476</v>
+        <v>0.1255556715869588</v>
       </c>
     </row>
     <row r="110">
@@ -1532,7 +1532,7 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0.007269487733524715</v>
+        <v>0.01131303282098885</v>
       </c>
     </row>
     <row r="111">
@@ -1542,7 +1542,7 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0.01307278814296935</v>
+        <v>0.03515844458992504</v>
       </c>
     </row>
     <row r="112">
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0.04811498276322874</v>
+        <v>0.08191336860964847</v>
       </c>
     </row>
     <row r="113">
@@ -1562,7 +1562,7 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>-0.005768414945857112</v>
+        <v>-0.03195831505436161</v>
       </c>
     </row>
     <row r="114">
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>-0.01855862349746436</v>
+        <v>0.005590005692449182</v>
       </c>
     </row>
     <row r="115">
@@ -1582,7 +1582,7 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>-0.003747546518328478</v>
+        <v>-0.04135423609136158</v>
       </c>
     </row>
     <row r="116">
@@ -1592,7 +1592,7 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>0.005279385529722151</v>
+        <v>-0.02044799411606243</v>
       </c>
     </row>
     <row r="117">
@@ -1602,7 +1602,7 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0.04134178884621497</v>
+        <v>0.03819076434823388</v>
       </c>
     </row>
     <row r="118">
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0.0387772305303368</v>
+        <v>0.02731718557945281</v>
       </c>
     </row>
     <row r="119">
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0.02432443773817228</v>
+        <v>0.03931906721469125</v>
       </c>
     </row>
     <row r="120">
@@ -1632,7 +1632,7 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>-0.01716045201282126</v>
+        <v>0.03762366197724148</v>
       </c>
     </row>
     <row r="121">
@@ -1642,7 +1642,7 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>-0.003942895616466352</v>
+        <v>0.05282855927828717</v>
       </c>
     </row>
     <row r="122">
@@ -1652,7 +1652,7 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>0.04297295888413729</v>
+        <v>-0.02193431878083756</v>
       </c>
     </row>
     <row r="123">
@@ -1662,7 +1662,7 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>0.04739426389484331</v>
+        <v>0.08149001339270515</v>
       </c>
     </row>
     <row r="124">
@@ -1672,7 +1672,7 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>-0.007916459326745159</v>
+        <v>0.001035319219838275</v>
       </c>
     </row>
     <row r="125">
@@ -1682,7 +1682,7 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>0.01409443663892122</v>
+        <v>0.03036032686589037</v>
       </c>
     </row>
     <row r="126">
@@ -1692,7 +1692,7 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>0.01133430593002438</v>
+        <v>-0.0356564690213218</v>
       </c>
     </row>
     <row r="127">
@@ -1702,7 +1702,7 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0.004847131462995915</v>
+        <v>0.01760844775553461</v>
       </c>
     </row>
     <row r="128">
@@ -1712,7 +1712,7 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>-0.01095669905860812</v>
+        <v>-0.01257834657300909</v>
       </c>
     </row>
     <row r="129">
@@ -1722,7 +1722,7 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>-0.03158419584753967</v>
+        <v>-0.02064794201359446</v>
       </c>
     </row>
     <row r="130">
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>0.004993277433111635</v>
+        <v>-0.01883148798518213</v>
       </c>
     </row>
     <row r="131">
@@ -1742,7 +1742,7 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>-0.04669498149135479</v>
+        <v>-0.03822848761490338</v>
       </c>
     </row>
     <row r="132">
@@ -1752,7 +1752,7 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>-0.07463059623757197</v>
+        <v>-0.01815044481305775</v>
       </c>
     </row>
     <row r="133">
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>-0.005257455622659353</v>
+        <v>0.03943536814126976</v>
       </c>
     </row>
     <row r="134">
@@ -1772,7 +1772,7 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>0.08903215340760094</v>
+        <v>0.0562660981005768</v>
       </c>
     </row>
     <row r="135">
@@ -1782,7 +1782,7 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>0.01041209630970829</v>
+        <v>0.02672016842164739</v>
       </c>
     </row>
     <row r="136">
@@ -1792,7 +1792,7 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>0.01935891864829781</v>
+        <v>0.04428561753249991</v>
       </c>
     </row>
     <row r="137">
@@ -1802,7 +1802,7 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>-0.02596165327915053</v>
+        <v>-0.04299931298355359</v>
       </c>
     </row>
     <row r="138">
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>0.01363281240499599</v>
+        <v>-0.01701482376418849</v>
       </c>
     </row>
     <row r="139">
@@ -1822,7 +1822,7 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>-0.05218295256817471</v>
+        <v>-0.01578372422625119</v>
       </c>
     </row>
     <row r="140">
@@ -1832,7 +1832,7 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>-0.008553013783569298</v>
+        <v>-0.00700746093639865</v>
       </c>
     </row>
     <row r="141">
@@ -1842,7 +1842,7 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>-0.0253475741953587</v>
+        <v>-0.02370847855249419</v>
       </c>
     </row>
     <row r="142">
@@ -1852,7 +1852,7 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>0.02580783724617104</v>
+        <v>-0.001275818819108746</v>
       </c>
     </row>
     <row r="143">
@@ -1862,7 +1862,7 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>-0.02403709152450077</v>
+        <v>0.008847790153991768</v>
       </c>
     </row>
     <row r="144">
@@ -1872,7 +1872,7 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>-0.02833778705491558</v>
+        <v>0.02243473242096321</v>
       </c>
     </row>
     <row r="145">
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>0.01833570700555312</v>
+        <v>-0.007222706104288612</v>
       </c>
     </row>
     <row r="146">
@@ -1892,7 +1892,7 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>-0.04358205432993233</v>
+        <v>0.01237540069417664</v>
       </c>
     </row>
     <row r="147">
@@ -1902,7 +1902,7 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>0.01535974929829466</v>
+        <v>0.08331856590253449</v>
       </c>
     </row>
     <row r="148">
@@ -1912,7 +1912,7 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>-0.001219979496294536</v>
+        <v>-0.0005572684915319148</v>
       </c>
     </row>
     <row r="149">
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>-0.02316711446959318</v>
+        <v>-0.07126436656458505</v>
       </c>
     </row>
     <row r="150">
@@ -1932,7 +1932,7 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>-0.1218849293865615</v>
+        <v>-0.08754111711653451</v>
       </c>
     </row>
     <row r="151">
@@ -1942,7 +1942,7 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>-0.1010702700046252</v>
+        <v>-0.05303842830816297</v>
       </c>
     </row>
     <row r="152">
@@ -1952,7 +1952,7 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>-0.02716211437700437</v>
+        <v>-0.01045648982491742</v>
       </c>
     </row>
     <row r="153">
@@ -1962,7 +1962,7 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>-0.05191214586812973</v>
+        <v>0.05556802546621074</v>
       </c>
     </row>
     <row r="154">
@@ -1972,7 +1972,7 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>-0.03064912240565978</v>
+        <v>-0.0003608333106344216</v>
       </c>
     </row>
     <row r="155">
@@ -1982,7 +1982,7 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>-0.02754963762766287</v>
+        <v>0.01016231684831888</v>
       </c>
     </row>
     <row r="156">
@@ -1992,7 +1992,7 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>-0.02627333472870235</v>
+        <v>0.01220738133172024</v>
       </c>
     </row>
     <row r="157">
@@ -2002,7 +2002,7 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>-0.04055297299495109</v>
+        <v>0.01606089311903477</v>
       </c>
     </row>
     <row r="158">
@@ -2012,7 +2012,7 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>0.01329822892381884</v>
+        <v>0.06917534462188568</v>
       </c>
     </row>
     <row r="159">
@@ -2022,7 +2022,7 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>-0.02810018869717446</v>
+        <v>0.03549828084107561</v>
       </c>
     </row>
     <row r="160">
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>-0.003027608531719083</v>
+        <v>0.01735719956507126</v>
       </c>
     </row>
     <row r="161">
@@ -2042,7 +2042,7 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>0.014178691632794</v>
+        <v>-0.0004969735880906553</v>
       </c>
     </row>
     <row r="162">
@@ -2052,7 +2052,7 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>0.06898132231289124</v>
+        <v>0.09266004380648656</v>
       </c>
     </row>
     <row r="163">
@@ -2062,7 +2062,7 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>0.02494194806580071</v>
+        <v>0.02316781106986585</v>
       </c>
     </row>
     <row r="164">
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>0.01204636876808841</v>
+        <v>0.02763232817730465</v>
       </c>
     </row>
     <row r="165">
@@ -2082,7 +2082,7 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>0.06661060936789828</v>
+        <v>0.06207495704932417</v>
       </c>
     </row>
     <row r="166">
@@ -2092,7 +2092,7 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>0.1040309179128194</v>
+        <v>0.08613645920449704</v>
       </c>
     </row>
     <row r="167">
@@ -2102,7 +2102,7 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>0.07562528126024264</v>
+        <v>0.1091530440130124</v>
       </c>
     </row>
     <row r="168">
@@ -2112,7 +2112,7 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>0.04876349913215278</v>
+        <v>0.01859287852623771</v>
       </c>
     </row>
     <row r="169">
@@ -2122,7 +2122,7 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>0.0623358274058047</v>
+        <v>0.07119905884746436</v>
       </c>
     </row>
     <row r="170">
@@ -2132,7 +2132,7 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>0.06370652735196103</v>
+        <v>0.07246819590914326</v>
       </c>
     </row>
     <row r="171">
@@ -2142,7 +2142,7 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>0.02388194277340436</v>
+        <v>0.05265421694101632</v>
       </c>
     </row>
     <row r="172">
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>0.03374694804543702</v>
+        <v>0.02495134896140023</v>
       </c>
     </row>
     <row r="173">
@@ -2162,7 +2162,7 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>0.07244202105945512</v>
+        <v>0.08283319318965382</v>
       </c>
     </row>
     <row r="174">
@@ -2172,7 +2172,7 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>0.02325036832138073</v>
+        <v>0.03399735351147922</v>
       </c>
     </row>
     <row r="175">
@@ -2182,7 +2182,7 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>0.01848193330326811</v>
+        <v>0.04526130383108598</v>
       </c>
     </row>
     <row r="176">
@@ -2192,7 +2192,7 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>-0.01351924497334657</v>
+        <v>-0.0143615617559018</v>
       </c>
     </row>
     <row r="177">
@@ -2202,7 +2202,7 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>0.0467887394330901</v>
+        <v>0.08046224261241257</v>
       </c>
     </row>
     <row r="178">
@@ -2212,7 +2212,7 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>0.06577167705190078</v>
+        <v>0.0742371700329567</v>
       </c>
     </row>
     <row r="179">
@@ -2222,7 +2222,7 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>0.04859874519614564</v>
+        <v>0.06379189970606058</v>
       </c>
     </row>
     <row r="180">
@@ -2232,7 +2232,7 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>0.03419050923697655</v>
+        <v>-0.03059663957454377</v>
       </c>
     </row>
     <row r="181">
@@ -2242,7 +2242,7 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>0.03727853173056327</v>
+        <v>0.02314213506553488</v>
       </c>
     </row>
     <row r="182">
@@ -2252,7 +2252,7 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>0.05008099753040816</v>
+        <v>0.06173074702015232</v>
       </c>
     </row>
     <row r="183">
@@ -2262,7 +2262,7 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>0.05870331192460249</v>
+        <v>0.07462346371272692</v>
       </c>
     </row>
     <row r="184">
@@ -2272,7 +2272,7 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>-0.002280950986926323</v>
+        <v>0.004689709190881722</v>
       </c>
     </row>
     <row r="185">
@@ -2282,7 +2282,7 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>0.03102660494227429</v>
+        <v>0.02720001351848589</v>
       </c>
     </row>
     <row r="186">
@@ -2292,7 +2292,7 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>0.06639352549857346</v>
+        <v>0.05975043961627226</v>
       </c>
     </row>
     <row r="187">
@@ -2302,7 +2302,7 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>0.02986971304938745</v>
+        <v>0.0669780120497607</v>
       </c>
     </row>
     <row r="188">
@@ -2312,7 +2312,7 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>0.01272971644601358</v>
+        <v>0.05995131137766028</v>
       </c>
     </row>
     <row r="189">
@@ -2322,7 +2322,7 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>0.07243672646593635</v>
+        <v>0.05465577427149235</v>
       </c>
     </row>
     <row r="190">
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>-0.01540912779046401</v>
+        <v>0.03216252236445857</v>
       </c>
     </row>
     <row r="191">
@@ -2342,7 +2342,7 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>0.01512110335221883</v>
+        <v>0.0400941049494369</v>
       </c>
     </row>
     <row r="192">
@@ -2352,7 +2352,7 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>0.02732636696974237</v>
+        <v>0.0004908022952207337</v>
       </c>
     </row>
     <row r="193">
@@ -2362,7 +2362,7 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>0.01480842854203413</v>
+        <v>0.02915898799780397</v>
       </c>
     </row>
     <row r="194">
@@ -2372,7 +2372,7 @@
         </is>
       </c>
       <c r="B194" t="n">
-        <v>0.02847790680054864</v>
+        <v>0.006989312506417898</v>
       </c>
     </row>
     <row r="195">
@@ -2382,7 +2382,7 @@
         </is>
       </c>
       <c r="B195" t="n">
-        <v>0.0293127715486038</v>
+        <v>0.0182041739290219</v>
       </c>
     </row>
     <row r="196">
@@ -2392,7 +2392,7 @@
         </is>
       </c>
       <c r="B196" t="n">
-        <v>0.009346381940447618</v>
+        <v>-0.007510338488219204</v>
       </c>
     </row>
     <row r="197">
@@ -2402,7 +2402,7 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>-0.0001897835882776917</v>
+        <v>-0.008931766131444514</v>
       </c>
     </row>
     <row r="198">
@@ -2412,7 +2412,7 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>0.02414250854355793</v>
+        <v>-0.007497696155549876</v>
       </c>
     </row>
     <row r="199">
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="B199" t="n">
-        <v>0.01042057836573435</v>
+        <v>-0.00518092787368534</v>
       </c>
     </row>
     <row r="200">
@@ -2432,7 +2432,7 @@
         </is>
       </c>
       <c r="B200" t="n">
-        <v>0.05928347817492329</v>
+        <v>0.01746841796942463</v>
       </c>
     </row>
     <row r="201">
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="B201" t="n">
-        <v>0.07020400693780104</v>
+        <v>0.06253406116212822</v>
       </c>
     </row>
     <row r="202">
@@ -2452,7 +2452,7 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>0.1072229296349863</v>
+        <v>0.08661047360704582</v>
       </c>
     </row>
     <row r="203">
@@ -2462,7 +2462,7 @@
         </is>
       </c>
       <c r="B203" t="n">
-        <v>0.06962277961953461</v>
+        <v>0.06415575405580742</v>
       </c>
     </row>
     <row r="204">
@@ -2472,7 +2472,7 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>0.05833409841663104</v>
+        <v>0.05242341260554392</v>
       </c>
     </row>
     <row r="205">
@@ -2482,7 +2482,7 @@
         </is>
       </c>
       <c r="B205" t="n">
-        <v>0.05327746283238848</v>
+        <v>0.01735153018018887</v>
       </c>
     </row>
     <row r="206">
@@ -2492,7 +2492,7 @@
         </is>
       </c>
       <c r="B206" t="n">
-        <v>0.06537689913595078</v>
+        <v>0.02267894074604712</v>
       </c>
     </row>
     <row r="207">
@@ -2502,7 +2502,7 @@
         </is>
       </c>
       <c r="B207" t="n">
-        <v>0.09308259678104321</v>
+        <v>0.04549684467769467</v>
       </c>
     </row>
     <row r="208">
@@ -2512,7 +2512,7 @@
         </is>
       </c>
       <c r="B208" t="n">
-        <v>0.04980063167991054</v>
+        <v>0.0294124584078482</v>
       </c>
     </row>
     <row r="209">
@@ -2522,7 +2522,7 @@
         </is>
       </c>
       <c r="B209" t="n">
-        <v>0.0458000106308028</v>
+        <v>0.03549681848574337</v>
       </c>
     </row>
     <row r="210">
@@ -2532,7 +2532,7 @@
         </is>
       </c>
       <c r="B210" t="n">
-        <v>0.04799639207969151</v>
+        <v>0.03883621826158044</v>
       </c>
     </row>
     <row r="211">
@@ -2542,7 +2542,7 @@
         </is>
       </c>
       <c r="B211" t="n">
-        <v>0.06413386156922578</v>
+        <v>0.02193319733010071</v>
       </c>
     </row>
     <row r="212">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B212" t="n">
-        <v>0.0672662188750915</v>
+        <v>0.01914274649376979</v>
       </c>
     </row>
     <row r="213">
@@ -2562,7 +2562,7 @@
         </is>
       </c>
       <c r="B213" t="n">
-        <v>0.02935209436728766</v>
+        <v>-0.03326062872531219</v>
       </c>
     </row>
     <row r="214">
@@ -2572,7 +2572,7 @@
         </is>
       </c>
       <c r="B214" t="n">
-        <v>0.01204299283540825</v>
+        <v>-0.03043622043701711</v>
       </c>
     </row>
     <row r="215">
@@ -2582,7 +2582,7 @@
         </is>
       </c>
       <c r="B215" t="n">
-        <v>-0.009859797434611321</v>
+        <v>-0.02749395076145398</v>
       </c>
     </row>
     <row r="216">
@@ -2592,7 +2592,7 @@
         </is>
       </c>
       <c r="B216" t="n">
-        <v>-0.05061822358698172</v>
+        <v>-0.06597065478323451</v>
       </c>
     </row>
     <row r="217">
@@ -2602,7 +2602,7 @@
         </is>
       </c>
       <c r="B217" t="n">
-        <v>-0.05121836335315168</v>
+        <v>-0.005644762953222773</v>
       </c>
     </row>
     <row r="218">
@@ -2612,7 +2612,7 @@
         </is>
       </c>
       <c r="B218" t="n">
-        <v>-0.04732153001301125</v>
+        <v>-0.02642080579812846</v>
       </c>
     </row>
     <row r="219">
@@ -2622,7 +2622,7 @@
         </is>
       </c>
       <c r="B219" t="n">
-        <v>-0.02891068019876866</v>
+        <v>-0.03108108888154509</v>
       </c>
     </row>
     <row r="220">
@@ -2632,7 +2632,7 @@
         </is>
       </c>
       <c r="B220" t="n">
-        <v>-0.0554216036607216</v>
+        <v>0.0271701480022335</v>
       </c>
     </row>
     <row r="221">
@@ -2642,7 +2642,7 @@
         </is>
       </c>
       <c r="B221" t="n">
-        <v>-0.03558516010802492</v>
+        <v>0.001765602641730437</v>
       </c>
     </row>
     <row r="222">
@@ -2652,7 +2652,7 @@
         </is>
       </c>
       <c r="B222" t="n">
-        <v>-0.0455442559995404</v>
+        <v>0.02387622427910614</v>
       </c>
     </row>
     <row r="223">
@@ -2662,7 +2662,7 @@
         </is>
       </c>
       <c r="B223" t="n">
-        <v>-0.07931962446860838</v>
+        <v>-0.002782786275454273</v>
       </c>
     </row>
     <row r="224">
@@ -2672,7 +2672,7 @@
         </is>
       </c>
       <c r="B224" t="n">
-        <v>-0.009623111676833263</v>
+        <v>-0.02078144408793401</v>
       </c>
     </row>
     <row r="225">
@@ -2682,7 +2682,7 @@
         </is>
       </c>
       <c r="B225" t="n">
-        <v>-0.0570293621487294</v>
+        <v>-0.01459604718883475</v>
       </c>
     </row>
     <row r="226">
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="B226" t="n">
-        <v>-0.03489962548873561</v>
+        <v>-0.002884263695180596</v>
       </c>
     </row>
     <row r="227">
@@ -2702,7 +2702,7 @@
         </is>
       </c>
       <c r="B227" t="n">
-        <v>-0.02493967011974683</v>
+        <v>-0.02202310957470888</v>
       </c>
     </row>
     <row r="228">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B228" t="n">
-        <v>-0.03097079674019633</v>
+        <v>0.04861303067735034</v>
       </c>
     </row>
     <row r="229">
@@ -2722,7 +2722,7 @@
         </is>
       </c>
       <c r="B229" t="n">
-        <v>-0.02481786522112026</v>
+        <v>-0.01677262853593801</v>
       </c>
     </row>
     <row r="230">
@@ -2732,7 +2732,7 @@
         </is>
       </c>
       <c r="B230" t="n">
-        <v>0.003426125004569664</v>
+        <v>0.01555815066777101</v>
       </c>
     </row>
     <row r="231">
@@ -2742,7 +2742,7 @@
         </is>
       </c>
       <c r="B231" t="n">
-        <v>-0.01051413669677271</v>
+        <v>0.06743998488410924</v>
       </c>
     </row>
     <row r="232">
@@ -2752,7 +2752,7 @@
         </is>
       </c>
       <c r="B232" t="n">
-        <v>0.01353040512477147</v>
+        <v>0.01895713320902906</v>
       </c>
     </row>
     <row r="233">
@@ -2762,7 +2762,7 @@
         </is>
       </c>
       <c r="B233" t="n">
-        <v>0.05193219070940943</v>
+        <v>0.01700440334274728</v>
       </c>
     </row>
     <row r="234">
@@ -2772,7 +2772,7 @@
         </is>
       </c>
       <c r="B234" t="n">
-        <v>0.01196870807402421</v>
+        <v>0.008963531177054859</v>
       </c>
     </row>
     <row r="235">
@@ -2782,7 +2782,7 @@
         </is>
       </c>
       <c r="B235" t="n">
-        <v>0.002100244451087471</v>
+        <v>0.008214927955344507</v>
       </c>
     </row>
     <row r="236">
@@ -2792,7 +2792,7 @@
         </is>
       </c>
       <c r="B236" t="n">
-        <v>0.03838245608847292</v>
+        <v>0.09007973025539823</v>
       </c>
     </row>
     <row r="237">
@@ -2802,7 +2802,7 @@
         </is>
       </c>
       <c r="B237" t="n">
-        <v>-0.003392896599626715</v>
+        <v>0.01072650664498331</v>
       </c>
     </row>
     <row r="238">
@@ -2812,7 +2812,7 @@
         </is>
       </c>
       <c r="B238" t="n">
-        <v>0.009693984115034391</v>
+        <v>-0.001356270507182187</v>
       </c>
     </row>
     <row r="239">
@@ -2822,7 +2822,7 @@
         </is>
       </c>
       <c r="B239" t="n">
-        <v>-0.01339234249385863</v>
+        <v>0.01490373045686422</v>
       </c>
     </row>
     <row r="240">
@@ -2832,7 +2832,7 @@
         </is>
       </c>
       <c r="B240" t="n">
-        <v>0.01689150425321956</v>
+        <v>0.05874198667706771</v>
       </c>
     </row>
     <row r="241">
@@ -2842,7 +2842,7 @@
         </is>
       </c>
       <c r="B241" t="n">
-        <v>0.06509181776142955</v>
+        <v>0.07352396734259616</v>
       </c>
     </row>
     <row r="242">
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="B242" t="n">
-        <v>0.05836683831033966</v>
+        <v>0.03742648492789423</v>
       </c>
     </row>
     <row r="243">
@@ -2862,7 +2862,7 @@
         </is>
       </c>
       <c r="B243" t="n">
-        <v>0.03637425209126102</v>
+        <v>0.01392130796127543</v>
       </c>
     </row>
     <row r="244">
@@ -2872,7 +2872,7 @@
         </is>
       </c>
       <c r="B244" t="n">
-        <v>0.02402576242953232</v>
+        <v>-0.0003913224462330841</v>
       </c>
     </row>
     <row r="245">
@@ -2882,7 +2882,7 @@
         </is>
       </c>
       <c r="B245" t="n">
-        <v>0.07881169790899274</v>
+        <v>0.03600922176442263</v>
       </c>
     </row>
     <row r="246">
@@ -2892,7 +2892,7 @@
         </is>
       </c>
       <c r="B246" t="n">
-        <v>0.02516795497517227</v>
+        <v>0.01642940355196081</v>
       </c>
     </row>
     <row r="247">
@@ -2902,7 +2902,7 @@
         </is>
       </c>
       <c r="B247" t="n">
-        <v>0.03301932662884224</v>
+        <v>0.03774226240027263</v>
       </c>
     </row>
     <row r="248">
@@ -2912,7 +2912,7 @@
         </is>
       </c>
       <c r="B248" t="n">
-        <v>0.06016105969050242</v>
+        <v>0.03163259499046647</v>
       </c>
     </row>
     <row r="249">
@@ -2922,7 +2922,7 @@
         </is>
       </c>
       <c r="B249" t="n">
-        <v>0.02989513806577494</v>
+        <v>-0.009742641944277297</v>
       </c>
     </row>
     <row r="250">
@@ -2932,7 +2932,7 @@
         </is>
       </c>
       <c r="B250" t="n">
-        <v>-0.01444676829624988</v>
+        <v>-0.007455517196319954</v>
       </c>
     </row>
     <row r="251">
@@ -2942,7 +2942,7 @@
         </is>
       </c>
       <c r="B251" t="n">
-        <v>0.03789385996981631</v>
+        <v>-0.01872990607910954</v>
       </c>
     </row>
     <row r="252">
@@ -2952,7 +2952,7 @@
         </is>
       </c>
       <c r="B252" t="n">
-        <v>0.01869033692910136</v>
+        <v>0.002169313770720613</v>
       </c>
     </row>
     <row r="253">
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="B253" t="n">
-        <v>-0.004942992497778151</v>
+        <v>-0.005678156783777505</v>
       </c>
     </row>
     <row r="254">
@@ -2972,7 +2972,7 @@
         </is>
       </c>
       <c r="B254" t="n">
-        <v>-0.01220460348231603</v>
+        <v>0.004871474602007263</v>
       </c>
     </row>
     <row r="255">
@@ -2982,7 +2982,7 @@
         </is>
       </c>
       <c r="B255" t="n">
-        <v>0.01333766058259902</v>
+        <v>0.05533856112738689</v>
       </c>
     </row>
     <row r="256">
@@ -2992,7 +2992,7 @@
         </is>
       </c>
       <c r="B256" t="n">
-        <v>0.01380094339595271</v>
+        <v>0.01429768714755014</v>
       </c>
     </row>
     <row r="257">
@@ -3002,7 +3002,7 @@
         </is>
       </c>
       <c r="B257" t="n">
-        <v>0.05106643129555204</v>
+        <v>0.008510005851848825</v>
       </c>
     </row>
     <row r="258">
@@ -3012,7 +3012,7 @@
         </is>
       </c>
       <c r="B258" t="n">
-        <v>-0.004157707944734717</v>
+        <v>-0.0003680034223455084</v>
       </c>
     </row>
     <row r="259">
@@ -3022,7 +3022,7 @@
         </is>
       </c>
       <c r="B259" t="n">
-        <v>-0.03746577962637446</v>
+        <v>-0.04916728769359449</v>
       </c>
     </row>
     <row r="260">
@@ -3032,7 +3032,7 @@
         </is>
       </c>
       <c r="B260" t="n">
-        <v>-0.03884407608867824</v>
+        <v>-0.03571622566428417</v>
       </c>
     </row>
     <row r="261">
@@ -3042,7 +3042,7 @@
         </is>
       </c>
       <c r="B261" t="n">
-        <v>0.0170160063379239</v>
+        <v>0.01638406937266201</v>
       </c>
     </row>
     <row r="262">
@@ -3052,7 +3052,7 @@
         </is>
       </c>
       <c r="B262" t="n">
-        <v>0.0186208140511291</v>
+        <v>-0.004311742588467697</v>
       </c>
     </row>
     <row r="263">
@@ -3062,7 +3062,7 @@
         </is>
       </c>
       <c r="B263" t="n">
-        <v>0.007826071352357519</v>
+        <v>0.007260105368480371</v>
       </c>
     </row>
     <row r="264">
@@ -3072,7 +3072,7 @@
         </is>
       </c>
       <c r="B264" t="n">
-        <v>0.003107697633920574</v>
+        <v>0.0191930553752345</v>
       </c>
     </row>
     <row r="265">
@@ -3082,7 +3082,7 @@
         </is>
       </c>
       <c r="B265" t="n">
-        <v>-0.05651333828137467</v>
+        <v>-0.01731497614079405</v>
       </c>
     </row>
     <row r="266">
@@ -3092,7 +3092,7 @@
         </is>
       </c>
       <c r="B266" t="n">
-        <v>-0.05628514422898725</v>
+        <v>-0.01515811018765722</v>
       </c>
     </row>
     <row r="267">
@@ -3102,7 +3102,7 @@
         </is>
       </c>
       <c r="B267" t="n">
-        <v>-0.05427098589526191</v>
+        <v>-0.03370911615274366</v>
       </c>
     </row>
     <row r="268">
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="B268" t="n">
-        <v>-0.02507830371930208</v>
+        <v>-0.05927164121929439</v>
       </c>
     </row>
     <row r="269">
@@ -3122,7 +3122,7 @@
         </is>
       </c>
       <c r="B269" t="n">
-        <v>-0.07344752204049934</v>
+        <v>-0.02252494554375708</v>
       </c>
     </row>
     <row r="270">
@@ -3132,7 +3132,7 @@
         </is>
       </c>
       <c r="B270" t="n">
-        <v>-0.08638144049658934</v>
+        <v>-0.07300184168677772</v>
       </c>
     </row>
     <row r="271">
@@ -3142,7 +3142,7 @@
         </is>
       </c>
       <c r="B271" t="n">
-        <v>-0.0449750080143308</v>
+        <v>-0.0005755830249770786</v>
       </c>
     </row>
     <row r="272">
@@ -3152,7 +3152,7 @@
         </is>
       </c>
       <c r="B272" t="n">
-        <v>0.008433386562190838</v>
+        <v>-0.005981716305401314</v>
       </c>
     </row>
     <row r="273">
@@ -3162,7 +3162,7 @@
         </is>
       </c>
       <c r="B273" t="n">
-        <v>-0.02926813847255739</v>
+        <v>-0.01903472857321634</v>
       </c>
     </row>
     <row r="274">
@@ -3172,7 +3172,7 @@
         </is>
       </c>
       <c r="B274" t="n">
-        <v>-0.05827019656509882</v>
+        <v>-0.05047591918280035</v>
       </c>
     </row>
     <row r="275">
@@ -3182,7 +3182,7 @@
         </is>
       </c>
       <c r="B275" t="n">
-        <v>-0.104336961805377</v>
+        <v>-0.05352337016533053</v>
       </c>
     </row>
     <row r="276">
@@ -3192,7 +3192,7 @@
         </is>
       </c>
       <c r="B276" t="n">
-        <v>-0.1562521292455462</v>
+        <v>-0.07448155990246424</v>
       </c>
     </row>
     <row r="277">
@@ -3202,7 +3202,7 @@
         </is>
       </c>
       <c r="B277" t="n">
-        <v>-0.08971832431641789</v>
+        <v>-0.07747949825675862</v>
       </c>
     </row>
     <row r="278">
@@ -3212,7 +3212,7 @@
         </is>
       </c>
       <c r="B278" t="n">
-        <v>-0.09870058684189455</v>
+        <v>-0.08459568579604641</v>
       </c>
     </row>
     <row r="279">
@@ -3222,7 +3222,7 @@
         </is>
       </c>
       <c r="B279" t="n">
-        <v>-0.08372105888183143</v>
+        <v>-0.08205917105951348</v>
       </c>
     </row>
     <row r="280">
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="B280" t="n">
-        <v>-0.1657634146907737</v>
+        <v>-0.1042225422708627</v>
       </c>
     </row>
     <row r="281">
@@ -3242,7 +3242,7 @@
         </is>
       </c>
       <c r="B281" t="n">
-        <v>-0.1240184722440371</v>
+        <v>-0.08409759046750394</v>
       </c>
     </row>
     <row r="282">
@@ -3252,7 +3252,7 @@
         </is>
       </c>
       <c r="B282" t="n">
-        <v>-0.1479469723664384</v>
+        <v>-0.1270434307651935</v>
       </c>
     </row>
     <row r="283">
@@ -3262,7 +3262,7 @@
         </is>
       </c>
       <c r="B283" t="n">
-        <v>-0.168005664364584</v>
+        <v>-0.1299865450791177</v>
       </c>
     </row>
     <row r="284">
@@ -3272,7 +3272,7 @@
         </is>
       </c>
       <c r="B284" t="n">
-        <v>-0.1208960696445153</v>
+        <v>-0.1138074505426123</v>
       </c>
     </row>
     <row r="285">
@@ -3282,7 +3282,7 @@
         </is>
       </c>
       <c r="B285" t="n">
-        <v>-0.1727912516955054</v>
+        <v>-0.09336183151718182</v>
       </c>
     </row>
     <row r="286">
@@ -3292,7 +3292,7 @@
         </is>
       </c>
       <c r="B286" t="n">
-        <v>-0.1952277970009032</v>
+        <v>-0.1468676056552985</v>
       </c>
     </row>
     <row r="287">
@@ -3302,7 +3302,7 @@
         </is>
       </c>
       <c r="B287" t="n">
-        <v>-0.1345870479657277</v>
+        <v>-0.1541333459690008</v>
       </c>
     </row>
     <row r="288">
@@ -3312,7 +3312,7 @@
         </is>
       </c>
       <c r="B288" t="n">
-        <v>-0.1994916807369709</v>
+        <v>-0.1927684714750072</v>
       </c>
     </row>
     <row r="289">
@@ -3322,7 +3322,7 @@
         </is>
       </c>
       <c r="B289" t="n">
-        <v>-0.1187236284393466</v>
+        <v>-0.09317463122426509</v>
       </c>
     </row>
     <row r="290">
@@ -3332,7 +3332,7 @@
         </is>
       </c>
       <c r="B290" t="n">
-        <v>-0.1924509047742425</v>
+        <v>-0.1169781397791014</v>
       </c>
     </row>
     <row r="291">
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="B291" t="n">
-        <v>-0.1231483005615899</v>
+        <v>-0.07724601512226609</v>
       </c>
     </row>
     <row r="292">
@@ -3352,7 +3352,7 @@
         </is>
       </c>
       <c r="B292" t="n">
-        <v>-0.1607463281125153</v>
+        <v>-0.06324286784159631</v>
       </c>
     </row>
     <row r="293">
@@ -3362,7 +3362,7 @@
         </is>
       </c>
       <c r="B293" t="n">
-        <v>-0.08716583487494221</v>
+        <v>-0.04430633150817621</v>
       </c>
     </row>
     <row r="294">
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="B294" t="n">
-        <v>-0.09090548029127868</v>
+        <v>-0.08203177411827624</v>
       </c>
     </row>
     <row r="295">
@@ -3382,7 +3382,7 @@
         </is>
       </c>
       <c r="B295" t="n">
-        <v>-0.102138343261492</v>
+        <v>-0.06768660407194615</v>
       </c>
     </row>
     <row r="296">
@@ -3392,7 +3392,7 @@
         </is>
       </c>
       <c r="B296" t="n">
-        <v>-0.1482828797891006</v>
+        <v>-0.1272422258273016</v>
       </c>
     </row>
     <row r="297">
@@ -3402,7 +3402,7 @@
         </is>
       </c>
       <c r="B297" t="n">
-        <v>-0.1181198237355662</v>
+        <v>-0.05578871977576217</v>
       </c>
     </row>
     <row r="298">
@@ -3412,7 +3412,7 @@
         </is>
       </c>
       <c r="B298" t="n">
-        <v>-0.1297959416352818</v>
+        <v>-0.1129322955707769</v>
       </c>
     </row>
     <row r="299">
@@ -3422,7 +3422,7 @@
         </is>
       </c>
       <c r="B299" t="n">
-        <v>-0.1224473709487102</v>
+        <v>-0.1014688088796749</v>
       </c>
     </row>
     <row r="300">
@@ -3432,7 +3432,7 @@
         </is>
       </c>
       <c r="B300" t="n">
-        <v>-0.1313342343420427</v>
+        <v>-0.1455281874702413</v>
       </c>
     </row>
     <row r="301">
@@ -3442,7 +3442,7 @@
         </is>
       </c>
       <c r="B301" t="n">
-        <v>-0.1348963354866698</v>
+        <v>-0.1070199393359493</v>
       </c>
     </row>
     <row r="302">
@@ -3452,7 +3452,7 @@
         </is>
       </c>
       <c r="B302" t="n">
-        <v>-0.1534818640576715</v>
+        <v>-0.1346533534512928</v>
       </c>
     </row>
     <row r="303">
@@ -3462,7 +3462,7 @@
         </is>
       </c>
       <c r="B303" t="n">
-        <v>-0.09675968351009136</v>
+        <v>-0.07639353328420054</v>
       </c>
     </row>
     <row r="304">
@@ -3472,7 +3472,7 @@
         </is>
       </c>
       <c r="B304" t="n">
-        <v>-0.1286913730781381</v>
+        <v>-0.1039907962804041</v>
       </c>
     </row>
     <row r="305">
@@ -3482,7 +3482,7 @@
         </is>
       </c>
       <c r="B305" t="n">
-        <v>-0.1442522303544887</v>
+        <v>-0.1363243854642336</v>
       </c>
     </row>
     <row r="306">
@@ -3492,7 +3492,7 @@
         </is>
       </c>
       <c r="B306" t="n">
-        <v>-0.1177599353668265</v>
+        <v>-0.0993913538004072</v>
       </c>
     </row>
     <row r="307">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B307" t="n">
-        <v>-0.1066393918835789</v>
+        <v>-0.08478049662351186</v>
       </c>
     </row>
     <row r="308">
@@ -3512,7 +3512,7 @@
         </is>
       </c>
       <c r="B308" t="n">
-        <v>-0.07107853944947384</v>
+        <v>-0.02234069314465861</v>
       </c>
     </row>
     <row r="309">
@@ -3522,7 +3522,7 @@
         </is>
       </c>
       <c r="B309" t="n">
-        <v>-0.09488171926090415</v>
+        <v>-0.09149592211611807</v>
       </c>
     </row>
     <row r="310">
@@ -3532,7 +3532,7 @@
         </is>
       </c>
       <c r="B310" t="n">
-        <v>-0.07058968192803802</v>
+        <v>0.150275547116079</v>
       </c>
     </row>
     <row r="311">
@@ -3542,7 +3542,7 @@
         </is>
       </c>
       <c r="B311" t="n">
-        <v>-0.0253936642393984</v>
+        <v>-0.04916135183272217</v>
       </c>
     </row>
     <row r="312">
@@ -3552,7 +3552,7 @@
         </is>
       </c>
       <c r="B312" t="n">
-        <v>-0.00236117938298816</v>
+        <v>0.01020886835537244</v>
       </c>
     </row>
     <row r="313">
@@ -3562,7 +3562,7 @@
         </is>
       </c>
       <c r="B313" t="n">
-        <v>-0.05011028587648021</v>
+        <v>-0.01782648983411786</v>
       </c>
     </row>
     <row r="314">
@@ -3572,7 +3572,7 @@
         </is>
       </c>
       <c r="B314" t="n">
-        <v>0.007423069336065216</v>
+        <v>0.00165722804623112</v>
       </c>
     </row>
     <row r="315">
@@ -3582,7 +3582,7 @@
         </is>
       </c>
       <c r="B315" t="n">
-        <v>-0.009350166051430665</v>
+        <v>0.02400814276648774</v>
       </c>
     </row>
     <row r="316">
@@ -3592,7 +3592,7 @@
         </is>
       </c>
       <c r="B316" t="n">
-        <v>-0.03586885377727</v>
+        <v>-0.02315035631487001</v>
       </c>
     </row>
     <row r="317">
@@ -3602,7 +3602,7 @@
         </is>
       </c>
       <c r="B317" t="n">
-        <v>-0.02924556112781257</v>
+        <v>-0.0461407641570481</v>
       </c>
     </row>
     <row r="318">
@@ -3612,7 +3612,7 @@
         </is>
       </c>
       <c r="B318" t="n">
-        <v>-0.05834008261756864</v>
+        <v>-0.01845658591147943</v>
       </c>
     </row>
     <row r="319">
@@ -3622,7 +3622,7 @@
         </is>
       </c>
       <c r="B319" t="n">
-        <v>-0.08496438052982738</v>
+        <v>-0.02466111531234445</v>
       </c>
     </row>
     <row r="320">
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="B320" t="n">
-        <v>-0.03526301329316944</v>
+        <v>-0.04181004403769142</v>
       </c>
     </row>
     <row r="321">
@@ -3642,7 +3642,7 @@
         </is>
       </c>
       <c r="B321" t="n">
-        <v>-0.0867429952907731</v>
+        <v>-0.08536252557050433</v>
       </c>
     </row>
     <row r="322">
@@ -3652,7 +3652,7 @@
         </is>
       </c>
       <c r="B322" t="n">
-        <v>-0.07345615361792655</v>
+        <v>-0.03030075327027614</v>
       </c>
     </row>
     <row r="323">
@@ -3662,7 +3662,7 @@
         </is>
       </c>
       <c r="B323" t="n">
-        <v>-0.06016239988930253</v>
+        <v>-0.0773831720437908</v>
       </c>
     </row>
     <row r="324">
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="B324" t="n">
-        <v>-0.03113608412896498</v>
+        <v>0.1490602792461484</v>
       </c>
     </row>
     <row r="325">
@@ -3682,7 +3682,7 @@
         </is>
       </c>
       <c r="B325" t="n">
-        <v>-0.03181338874842935</v>
+        <v>0.08456982230361877</v>
       </c>
     </row>
     <row r="326">
@@ -3692,7 +3692,7 @@
         </is>
       </c>
       <c r="B326" t="n">
-        <v>-0.06797496887909699</v>
+        <v>-0.08904762310339465</v>
       </c>
     </row>
     <row r="327">
@@ -3702,7 +3702,7 @@
         </is>
       </c>
       <c r="B327" t="n">
-        <v>-0.03263796124740549</v>
+        <v>-0.0404619360881105</v>
       </c>
     </row>
     <row r="328">
@@ -3712,7 +3712,7 @@
         </is>
       </c>
       <c r="B328" t="n">
-        <v>-0.03355313043460424</v>
+        <v>-0.04105386138458961</v>
       </c>
     </row>
     <row r="329">
@@ -3722,7 +3722,7 @@
         </is>
       </c>
       <c r="B329" t="n">
-        <v>-0.04334973124052304</v>
+        <v>-0.04551876662144039</v>
       </c>
     </row>
     <row r="330">
@@ -3732,7 +3732,7 @@
         </is>
       </c>
       <c r="B330" t="n">
-        <v>-0.01802948516365377</v>
+        <v>-0.008267635092190863</v>
       </c>
     </row>
     <row r="331">
@@ -3742,7 +3742,7 @@
         </is>
       </c>
       <c r="B331" t="n">
-        <v>0.00342772939845689</v>
+        <v>0.0147219825479706</v>
       </c>
     </row>
     <row r="332">
@@ -3752,7 +3752,7 @@
         </is>
       </c>
       <c r="B332" t="n">
-        <v>0.03057943757019019</v>
+        <v>0.006174372522078334</v>
       </c>
     </row>
     <row r="333">
@@ -3762,7 +3762,7 @@
         </is>
       </c>
       <c r="B333" t="n">
-        <v>0.03554118546576975</v>
+        <v>0.03330792937092802</v>
       </c>
     </row>
     <row r="334">
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="B334" t="n">
-        <v>0.04554387882463619</v>
+        <v>0.00532134503999472</v>
       </c>
     </row>
     <row r="335">
@@ -3782,7 +3782,7 @@
         </is>
       </c>
       <c r="B335" t="n">
-        <v>0.01176495652820721</v>
+        <v>-0.03048995209058205</v>
       </c>
     </row>
     <row r="336">
@@ -3792,7 +3792,7 @@
         </is>
       </c>
       <c r="B336" t="n">
-        <v>0.01381164884457756</v>
+        <v>-0.008253224415031565</v>
       </c>
     </row>
     <row r="337">
@@ -3802,7 +3802,7 @@
         </is>
       </c>
       <c r="B337" t="n">
-        <v>-0.05437615786644535</v>
+        <v>-0.03250349567987034</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Regression/news_index_dire_lex_PMI.xlsx
+++ b/Data/Regression/news_index_dire_lex_PMI.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.01588128538053636</v>
+        <v>0.04733470484790057</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.120649574480869</v>
+        <v>0.04257353220700438</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1172459234076447</v>
+        <v>0.01482594780256615</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03362281253861352</v>
+        <v>0.05408888513938304</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.06616696397561934</v>
+        <v>0.01510866015259563</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01622615256451137</v>
+        <v>0.029430824757783</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.05729153944980579</v>
+        <v>0.009387155634719544</v>
       </c>
     </row>
     <row r="9">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1060239209821415</v>
+        <v>0.07312425834857038</v>
       </c>
     </row>
     <row r="10">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.02478266488550333</v>
+        <v>0.01377709373765912</v>
       </c>
     </row>
     <row r="11">
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.003459319751536533</v>
+        <v>0.005518002827285644</v>
       </c>
     </row>
     <row r="12">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.02953743925986168</v>
+        <v>0.0429782653558386</v>
       </c>
     </row>
     <row r="13">
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.009929531518342749</v>
+        <v>0.02684599986954448</v>
       </c>
     </row>
     <row r="14">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.03107350011011525</v>
+        <v>0.04878172589542555</v>
       </c>
     </row>
     <row r="15">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.1016107315397433</v>
+        <v>0.03020923111064609</v>
       </c>
     </row>
     <row r="16">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1019727158593348</v>
+        <v>0.02780992871302262</v>
       </c>
     </row>
     <row r="17">
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.04503399680296997</v>
+        <v>0.03426985834570741</v>
       </c>
     </row>
     <row r="18">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.03273829308936808</v>
+        <v>0.02077563454269729</v>
       </c>
     </row>
     <row r="19">
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.05629295607310071</v>
+        <v>-0.00456016046283441</v>
       </c>
     </row>
     <row r="20">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.01261143448814844</v>
+        <v>-0.01275679644592765</v>
       </c>
     </row>
     <row r="21">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2.327419317939075e-05</v>
+        <v>-0.005647064695681752</v>
       </c>
     </row>
     <row r="22">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.05130294329445269</v>
+        <v>-0.01383807843390885</v>
       </c>
     </row>
     <row r="23">
@@ -662,7 +662,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.03259023064521257</v>
+        <v>0.02223175708057273</v>
       </c>
     </row>
     <row r="24">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.07050938270079056</v>
+        <v>-0.005057042608022481</v>
       </c>
     </row>
     <row r="25">
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.1108973714883216</v>
+        <v>0.02904674263394692</v>
       </c>
     </row>
     <row r="26">
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.06205861835220498</v>
+        <v>0.04587928525048227</v>
       </c>
     </row>
     <row r="27">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.1127468170189362</v>
+        <v>0.0227037402205332</v>
       </c>
     </row>
     <row r="28">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.07142468087083266</v>
+        <v>0.02706863888891189</v>
       </c>
     </row>
     <row r="29">
@@ -722,7 +722,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.02104860380867144</v>
+        <v>0.01513469701232244</v>
       </c>
     </row>
     <row r="30">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-0.009054496615094916</v>
+        <v>0.02341468302633825</v>
       </c>
     </row>
     <row r="31">
@@ -742,7 +742,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-0.006728737392254013</v>
+        <v>0.04019937912215546</v>
       </c>
     </row>
     <row r="32">
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-0.01476108133066042</v>
+        <v>0.01242304023903573</v>
       </c>
     </row>
     <row r="33">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.04612361996203351</v>
+        <v>0.01367743463887303</v>
       </c>
     </row>
     <row r="34">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-0.03112209744364968</v>
+        <v>0.05333543551091844</v>
       </c>
     </row>
     <row r="35">
@@ -782,7 +782,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-0.01536197577891128</v>
+        <v>0.005642604983265862</v>
       </c>
     </row>
     <row r="36">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.03808643614096944</v>
+        <v>-0.01268382241661301</v>
       </c>
     </row>
     <row r="37">
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.100639837090751</v>
+        <v>-0.003883313326202011</v>
       </c>
     </row>
     <row r="38">
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.02862412553568296</v>
+        <v>-0.004220895201733515</v>
       </c>
     </row>
     <row r="39">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-0.009467213379200274</v>
+        <v>0.01358339145238989</v>
       </c>
     </row>
     <row r="40">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.04143582932252413</v>
+        <v>0.01031792977511872</v>
       </c>
     </row>
     <row r="41">
@@ -842,7 +842,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.003335276398219128</v>
+        <v>-0.006642300132702065</v>
       </c>
     </row>
     <row r="42">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-0.03305150307548609</v>
+        <v>0.04187532817278566</v>
       </c>
     </row>
     <row r="43">
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-0.009487457491164969</v>
+        <v>0.009142946534706046</v>
       </c>
     </row>
     <row r="44">
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.1214548620363249</v>
+        <v>0.01551528892212068</v>
       </c>
     </row>
     <row r="45">
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.01202074261489363</v>
+        <v>0.01866703106595862</v>
       </c>
     </row>
     <row r="46">
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>-0.01486454468179869</v>
+        <v>0.01723958172641422</v>
       </c>
     </row>
     <row r="47">
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-0.04275158265966123</v>
+        <v>-0.00257644013116703</v>
       </c>
     </row>
     <row r="48">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.01170247864396977</v>
+        <v>0.02215265470702495</v>
       </c>
     </row>
     <row r="49">
@@ -922,7 +922,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>-0.05430711290276979</v>
+        <v>0.01848665717569931</v>
       </c>
     </row>
     <row r="50">
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>-0.0007866777656479523</v>
+        <v>0.0162636403123418</v>
       </c>
     </row>
     <row r="51">
@@ -942,7 +942,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.008792439453664347</v>
+        <v>0.01618365749513304</v>
       </c>
     </row>
     <row r="52">
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>-0.01698194802887979</v>
+        <v>0.003945394658917661</v>
       </c>
     </row>
     <row r="53">
@@ -962,7 +962,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>-0.04322105555642389</v>
+        <v>-0.01464921299787835</v>
       </c>
     </row>
     <row r="54">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>-0.002375049185211558</v>
+        <v>0.002806656629160288</v>
       </c>
     </row>
     <row r="55">
@@ -982,7 +982,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>-0.007934319205598457</v>
+        <v>0.002798228943836342</v>
       </c>
     </row>
     <row r="56">
@@ -992,7 +992,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.004341750710268218</v>
+        <v>-0.0006326198798187484</v>
       </c>
     </row>
     <row r="57">
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>-0.05116249258566256</v>
+        <v>-0.005825035170085787</v>
       </c>
     </row>
     <row r="58">
@@ -1012,7 +1012,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.07795829771812048</v>
+        <v>0.00188573851024345</v>
       </c>
     </row>
     <row r="59">
@@ -1022,7 +1022,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.06185743273801152</v>
+        <v>-0.01181513123624706</v>
       </c>
     </row>
     <row r="60">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>-0.02334518919429414</v>
+        <v>-0.0207258414280591</v>
       </c>
     </row>
     <row r="61">
@@ -1042,7 +1042,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>-0.1047353735797158</v>
+        <v>0.02085777210966893</v>
       </c>
     </row>
     <row r="62">
@@ -1052,7 +1052,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>-0.05296805282629691</v>
+        <v>-0.01624115344842531</v>
       </c>
     </row>
     <row r="63">
@@ -1062,7 +1062,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>-0.2023487981536082</v>
+        <v>0.006889097482623835</v>
       </c>
     </row>
     <row r="64">
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.02797781417368423</v>
+        <v>-0.01924959164189852</v>
       </c>
     </row>
     <row r="65">
@@ -1082,7 +1082,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>-0.03498913895564656</v>
+        <v>0.01037074828144894</v>
       </c>
     </row>
     <row r="66">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>-0.07934249649243184</v>
+        <v>-0.03960865961474316</v>
       </c>
     </row>
     <row r="67">
@@ -1102,7 +1102,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.05166430771416761</v>
+        <v>0.01460393160372534</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.1275736826899471</v>
+        <v>-0.0001744485170406656</v>
       </c>
     </row>
     <row r="69">
@@ -1122,7 +1122,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>-0.1093922305866375</v>
+        <v>0.003880921636450171</v>
       </c>
     </row>
     <row r="70">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.03876367296466995</v>
+        <v>0.003161927239322585</v>
       </c>
     </row>
     <row r="71">
@@ -1142,7 +1142,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>-0.09804746428141915</v>
+        <v>0.0388660499012914</v>
       </c>
     </row>
     <row r="72">
@@ -1152,7 +1152,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.08120197858216836</v>
+        <v>0.007711318285478546</v>
       </c>
     </row>
     <row r="73">
@@ -1162,7 +1162,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.03426621146065369</v>
+        <v>-0.02672218452378353</v>
       </c>
     </row>
     <row r="74">
@@ -1172,7 +1172,7 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.06935518206552153</v>
+        <v>0.02491930659489721</v>
       </c>
     </row>
     <row r="75">
@@ -1182,7 +1182,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.00810578403576221</v>
+        <v>0.0131174557351851</v>
       </c>
     </row>
     <row r="76">
@@ -1192,7 +1192,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>-0.03384171508819103</v>
+        <v>-0.02564137628662577</v>
       </c>
     </row>
     <row r="77">
@@ -1202,7 +1202,7 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>-0.03861357045215753</v>
+        <v>-0.01719308543455881</v>
       </c>
     </row>
     <row r="78">
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.1020835664900099</v>
+        <v>0.01887412852562548</v>
       </c>
     </row>
     <row r="79">
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>7.632779157531836e-05</v>
+        <v>0.04115477408267613</v>
       </c>
     </row>
     <row r="80">
@@ -1232,7 +1232,7 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.08176151608917363</v>
+        <v>0.01313557437167395</v>
       </c>
     </row>
     <row r="81">
@@ -1242,7 +1242,7 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>-0.001828761688699756</v>
+        <v>0.01614913320237646</v>
       </c>
     </row>
     <row r="82">
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.00986609435689049</v>
+        <v>0.00728821899698274</v>
       </c>
     </row>
     <row r="83">
@@ -1262,7 +1262,7 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.007658647138912911</v>
+        <v>-0.002777476041737458</v>
       </c>
     </row>
     <row r="84">
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.06450897992904323</v>
+        <v>0.01469636261583626</v>
       </c>
     </row>
     <row r="85">
@@ -1282,7 +1282,7 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>-0.0270018922934402</v>
+        <v>-0.01299745745014985</v>
       </c>
     </row>
     <row r="86">
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>-0.01819998200243321</v>
+        <v>-0.04557620208967574</v>
       </c>
     </row>
     <row r="87">
@@ -1302,7 +1302,7 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>-0.04181338311359872</v>
+        <v>0.01369953453291161</v>
       </c>
     </row>
     <row r="88">
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.04323897436935342</v>
+        <v>0.01803986668226104</v>
       </c>
     </row>
     <row r="89">
@@ -1322,7 +1322,7 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.04690243032936183</v>
+        <v>-0.01372823858282247</v>
       </c>
     </row>
     <row r="90">
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.004433640789715681</v>
+        <v>0.01391482370818755</v>
       </c>
     </row>
     <row r="91">
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.01152970114340863</v>
+        <v>0.01906726775096931</v>
       </c>
     </row>
     <row r="92">
@@ -1352,7 +1352,7 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>-0.0006013727279149089</v>
+        <v>-0.01490295004570014</v>
       </c>
     </row>
     <row r="93">
@@ -1362,7 +1362,7 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.008053062348908563</v>
+        <v>0.01270622338637415</v>
       </c>
     </row>
     <row r="94">
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.04718138638173875</v>
+        <v>-0.02361950483655971</v>
       </c>
     </row>
     <row r="95">
@@ -1382,7 +1382,7 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>-0.0352459276256905</v>
+        <v>-0.001384497778749214</v>
       </c>
     </row>
     <row r="96">
@@ -1392,7 +1392,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.06435732062654066</v>
+        <v>-0.01061685310724375</v>
       </c>
     </row>
     <row r="97">
@@ -1402,7 +1402,7 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>-0.08850389295810057</v>
+        <v>-0.02531796552464301</v>
       </c>
     </row>
     <row r="98">
@@ -1412,7 +1412,7 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>-0.03964750845277068</v>
+        <v>0.01225424546344489</v>
       </c>
     </row>
     <row r="99">
@@ -1422,7 +1422,7 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>-0.01508479156479053</v>
+        <v>-0.04398188261689312</v>
       </c>
     </row>
     <row r="100">
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>-0.01762407434877515</v>
+        <v>0.02068519197708237</v>
       </c>
     </row>
     <row r="101">
@@ -1442,7 +1442,7 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.04966289106485188</v>
+        <v>0.03193989083674433</v>
       </c>
     </row>
     <row r="102">
@@ -1452,7 +1452,7 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.08047292484096075</v>
+        <v>0.03422382340096691</v>
       </c>
     </row>
     <row r="103">
@@ -1462,7 +1462,7 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0.03905155260080898</v>
+        <v>0.01900178771146857</v>
       </c>
     </row>
     <row r="104">
@@ -1472,7 +1472,7 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0.04513300823186083</v>
+        <v>-0.01347886786722361</v>
       </c>
     </row>
     <row r="105">
@@ -1482,7 +1482,7 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0.08994723440618518</v>
+        <v>-0.0004131007257820983</v>
       </c>
     </row>
     <row r="106">
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0.1169002505137033</v>
+        <v>0.01634347501601486</v>
       </c>
     </row>
     <row r="107">
@@ -1502,7 +1502,7 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0.07314868232913969</v>
+        <v>0.00534897550583232</v>
       </c>
     </row>
     <row r="108">
@@ -1512,7 +1512,7 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>-0.04301688900213899</v>
+        <v>-0.0216501336729851</v>
       </c>
     </row>
     <row r="109">
@@ -1522,7 +1522,7 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0.1255556715869588</v>
+        <v>0.02182047766026561</v>
       </c>
     </row>
     <row r="110">
@@ -1532,7 +1532,7 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0.01131303282098885</v>
+        <v>0.005631123269498034</v>
       </c>
     </row>
     <row r="111">
@@ -1542,7 +1542,7 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0.03515844458992504</v>
+        <v>0.0048689023877548</v>
       </c>
     </row>
     <row r="112">
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0.08191336860964847</v>
+        <v>0.02720905554620403</v>
       </c>
     </row>
     <row r="113">
@@ -1562,7 +1562,7 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>-0.03195831505436161</v>
+        <v>-0.01074403071811186</v>
       </c>
     </row>
     <row r="114">
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0.005590005692449182</v>
+        <v>0.01026980569664113</v>
       </c>
     </row>
     <row r="115">
@@ -1582,7 +1582,7 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>-0.04135423609136158</v>
+        <v>0.03240558697531828</v>
       </c>
     </row>
     <row r="116">
@@ -1592,7 +1592,7 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>-0.02044799411606243</v>
+        <v>-0.01781110722682397</v>
       </c>
     </row>
     <row r="117">
@@ -1602,7 +1602,7 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0.03819076434823388</v>
+        <v>0.03262075558334112</v>
       </c>
     </row>
     <row r="118">
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0.02731718557945281</v>
+        <v>0.05178432535520596</v>
       </c>
     </row>
     <row r="119">
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0.03931906721469125</v>
+        <v>0.0343146893804569</v>
       </c>
     </row>
     <row r="120">
@@ -1632,7 +1632,7 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>0.03762366197724148</v>
+        <v>-0.008917343834182587</v>
       </c>
     </row>
     <row r="121">
@@ -1642,7 +1642,7 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>0.05282855927828717</v>
+        <v>0.01452841341204518</v>
       </c>
     </row>
     <row r="122">
@@ -1652,7 +1652,7 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>-0.02193431878083756</v>
+        <v>0.0631835783777704</v>
       </c>
     </row>
     <row r="123">
@@ -1662,7 +1662,7 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>0.08149001339270515</v>
+        <v>0.1193890705542001</v>
       </c>
     </row>
     <row r="124">
@@ -1672,7 +1672,7 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>0.001035319219838275</v>
+        <v>0.01246200905814593</v>
       </c>
     </row>
     <row r="125">
@@ -1682,7 +1682,7 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>0.03036032686589037</v>
+        <v>0.05112906356454004</v>
       </c>
     </row>
     <row r="126">
@@ -1692,7 +1692,7 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>-0.0356564690213218</v>
+        <v>0.0386054948365273</v>
       </c>
     </row>
     <row r="127">
@@ -1702,7 +1702,7 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0.01760844775553461</v>
+        <v>0.02836909683222404</v>
       </c>
     </row>
     <row r="128">
@@ -1712,7 +1712,7 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>-0.01257834657300909</v>
+        <v>0.02593032693644765</v>
       </c>
     </row>
     <row r="129">
@@ -1722,7 +1722,7 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>-0.02064794201359446</v>
+        <v>0.02674807655695414</v>
       </c>
     </row>
     <row r="130">
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>-0.01883148798518213</v>
+        <v>0.03063448407536805</v>
       </c>
     </row>
     <row r="131">
@@ -1742,7 +1742,7 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>-0.03822848761490338</v>
+        <v>-0.04932220960827249</v>
       </c>
     </row>
     <row r="132">
@@ -1752,7 +1752,7 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>-0.01815044481305775</v>
+        <v>-0.009056508586639768</v>
       </c>
     </row>
     <row r="133">
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>0.03943536814126976</v>
+        <v>0.01429200769583342</v>
       </c>
     </row>
     <row r="134">
@@ -1772,7 +1772,7 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>0.0562660981005768</v>
+        <v>0.06130241950018565</v>
       </c>
     </row>
     <row r="135">
@@ -1782,7 +1782,7 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>0.02672016842164739</v>
+        <v>0.0188954325282108</v>
       </c>
     </row>
     <row r="136">
@@ -1792,7 +1792,7 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>0.04428561753249991</v>
+        <v>0.06301505027526373</v>
       </c>
     </row>
     <row r="137">
@@ -1802,7 +1802,7 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>-0.04299931298355359</v>
+        <v>-0.004253431404092508</v>
       </c>
     </row>
     <row r="138">
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>-0.01701482376418849</v>
+        <v>0.04067050662936263</v>
       </c>
     </row>
     <row r="139">
@@ -1822,7 +1822,7 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>-0.01578372422625119</v>
+        <v>0.01218944239273573</v>
       </c>
     </row>
     <row r="140">
@@ -1832,7 +1832,7 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>-0.00700746093639865</v>
+        <v>0.06400747809658057</v>
       </c>
     </row>
     <row r="141">
@@ -1842,7 +1842,7 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>-0.02370847855249419</v>
+        <v>0.003249237909333012</v>
       </c>
     </row>
     <row r="142">
@@ -1852,7 +1852,7 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>-0.001275818819108746</v>
+        <v>0.006891601974112832</v>
       </c>
     </row>
     <row r="143">
@@ -1862,7 +1862,7 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>0.008847790153991768</v>
+        <v>0.01095457079161611</v>
       </c>
     </row>
     <row r="144">
@@ -1872,7 +1872,7 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>0.02243473242096321</v>
+        <v>-0.01172636155575622</v>
       </c>
     </row>
     <row r="145">
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>-0.007222706104288612</v>
+        <v>0.008510749943997324</v>
       </c>
     </row>
     <row r="146">
@@ -1892,7 +1892,7 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>0.01237540069417664</v>
+        <v>0.01850780478493851</v>
       </c>
     </row>
     <row r="147">
@@ -1902,7 +1902,7 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>0.08331856590253449</v>
+        <v>0.07066336900143327</v>
       </c>
     </row>
     <row r="148">
@@ -1912,7 +1912,7 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>-0.0005572684915319148</v>
+        <v>0.02449219875478914</v>
       </c>
     </row>
     <row r="149">
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>-0.07126436656458505</v>
+        <v>0.01627785235019467</v>
       </c>
     </row>
     <row r="150">
@@ -1932,7 +1932,7 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>-0.08754111711653451</v>
+        <v>-0.08073018469173246</v>
       </c>
     </row>
     <row r="151">
@@ -1942,7 +1942,7 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>-0.05303842830816297</v>
+        <v>-0.03909776018806954</v>
       </c>
     </row>
     <row r="152">
@@ -1952,7 +1952,7 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>-0.01045648982491742</v>
+        <v>-0.0209965045236273</v>
       </c>
     </row>
     <row r="153">
@@ -1962,7 +1962,7 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>0.05556802546621074</v>
+        <v>0.01278384481011321</v>
       </c>
     </row>
     <row r="154">
@@ -1972,7 +1972,7 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>-0.0003608333106344216</v>
+        <v>0.02358562319563971</v>
       </c>
     </row>
     <row r="155">
@@ -1982,7 +1982,7 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>0.01016231684831888</v>
+        <v>-0.005063578531840285</v>
       </c>
     </row>
     <row r="156">
@@ -1992,7 +1992,7 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>0.01220738133172024</v>
+        <v>0.005078696923287029</v>
       </c>
     </row>
     <row r="157">
@@ -2002,7 +2002,7 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>0.01606089311903477</v>
+        <v>-0.02352296887687653</v>
       </c>
     </row>
     <row r="158">
@@ -2012,7 +2012,7 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>0.06917534462188568</v>
+        <v>0.02674284965191145</v>
       </c>
     </row>
     <row r="159">
@@ -2022,7 +2022,7 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>0.03549828084107561</v>
+        <v>-0.007291852945146413</v>
       </c>
     </row>
     <row r="160">
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>0.01735719956507126</v>
+        <v>-0.02000361237673458</v>
       </c>
     </row>
     <row r="161">
@@ -2042,7 +2042,7 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>-0.0004969735880906553</v>
+        <v>0.01757700004839443</v>
       </c>
     </row>
     <row r="162">
@@ -2052,7 +2052,7 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>0.09266004380648656</v>
+        <v>0.04844231423103914</v>
       </c>
     </row>
     <row r="163">
@@ -2062,7 +2062,7 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>0.02316781106986585</v>
+        <v>0.03887396976564968</v>
       </c>
     </row>
     <row r="164">
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>0.02763232817730465</v>
+        <v>0.03227877719360387</v>
       </c>
     </row>
     <row r="165">
@@ -2082,7 +2082,7 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>0.06207495704932417</v>
+        <v>0.09355960946776445</v>
       </c>
     </row>
     <row r="166">
@@ -2092,7 +2092,7 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>0.08613645920449704</v>
+        <v>0.1086616109253241</v>
       </c>
     </row>
     <row r="167">
@@ -2102,7 +2102,7 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>0.1091530440130124</v>
+        <v>0.05614579405748284</v>
       </c>
     </row>
     <row r="168">
@@ -2112,7 +2112,7 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>0.01859287852623771</v>
+        <v>0.03705482874146782</v>
       </c>
     </row>
     <row r="169">
@@ -2122,7 +2122,7 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>0.07119905884746436</v>
+        <v>0.09813006666615506</v>
       </c>
     </row>
     <row r="170">
@@ -2132,7 +2132,7 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>0.07246819590914326</v>
+        <v>0.09392714108807226</v>
       </c>
     </row>
     <row r="171">
@@ -2142,7 +2142,7 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>0.05265421694101632</v>
+        <v>0.03825756232819232</v>
       </c>
     </row>
     <row r="172">
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>0.02495134896140023</v>
+        <v>-0.00378451148127347</v>
       </c>
     </row>
     <row r="173">
@@ -2162,7 +2162,7 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>0.08283319318965382</v>
+        <v>0.05630242580913187</v>
       </c>
     </row>
     <row r="174">
@@ -2172,7 +2172,7 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>0.03399735351147922</v>
+        <v>0.01011381259460437</v>
       </c>
     </row>
     <row r="175">
@@ -2182,7 +2182,7 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>0.04526130383108598</v>
+        <v>-0.009150166096025553</v>
       </c>
     </row>
     <row r="176">
@@ -2192,7 +2192,7 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>-0.0143615617559018</v>
+        <v>0.0267350880067784</v>
       </c>
     </row>
     <row r="177">
@@ -2202,7 +2202,7 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>0.08046224261241257</v>
+        <v>0.06168738611467623</v>
       </c>
     </row>
     <row r="178">
@@ -2212,7 +2212,7 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>0.0742371700329567</v>
+        <v>0.05956120196173525</v>
       </c>
     </row>
     <row r="179">
@@ -2222,7 +2222,7 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>0.06379189970606058</v>
+        <v>0.03092083563292638</v>
       </c>
     </row>
     <row r="180">
@@ -2232,7 +2232,7 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>-0.03059663957454377</v>
+        <v>0.04033756095997386</v>
       </c>
     </row>
     <row r="181">
@@ -2242,7 +2242,7 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>0.02314213506553488</v>
+        <v>0.07428266606243698</v>
       </c>
     </row>
     <row r="182">
@@ -2252,7 +2252,7 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>0.06173074702015232</v>
+        <v>0.04838369063459676</v>
       </c>
     </row>
     <row r="183">
@@ -2262,7 +2262,7 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>0.07462346371272692</v>
+        <v>0.03438172819318333</v>
       </c>
     </row>
     <row r="184">
@@ -2272,7 +2272,7 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>0.004689709190881722</v>
+        <v>0.05571781213519272</v>
       </c>
     </row>
     <row r="185">
@@ -2282,7 +2282,7 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>0.02720001351848589</v>
+        <v>0.05031773723047893</v>
       </c>
     </row>
     <row r="186">
@@ -2292,7 +2292,7 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>0.05975043961627226</v>
+        <v>0.0705563702725116</v>
       </c>
     </row>
     <row r="187">
@@ -2302,7 +2302,7 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>0.0669780120497607</v>
+        <v>0.05474861294447973</v>
       </c>
     </row>
     <row r="188">
@@ -2312,7 +2312,7 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>0.05995131137766028</v>
+        <v>0.02806046333286931</v>
       </c>
     </row>
     <row r="189">
@@ -2322,7 +2322,7 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>0.05465577427149235</v>
+        <v>0.07322330821991084</v>
       </c>
     </row>
     <row r="190">
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>0.03216252236445857</v>
+        <v>-0.004540457755758934</v>
       </c>
     </row>
     <row r="191">
@@ -2342,7 +2342,7 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>0.0400941049494369</v>
+        <v>0.06389940372277814</v>
       </c>
     </row>
     <row r="192">
@@ -2352,7 +2352,7 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>0.0004908022952207337</v>
+        <v>0.03190243882347907</v>
       </c>
     </row>
     <row r="193">
@@ -2362,7 +2362,7 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>0.02915898799780397</v>
+        <v>0.07656256873416446</v>
       </c>
     </row>
     <row r="194">
@@ -2372,7 +2372,7 @@
         </is>
       </c>
       <c r="B194" t="n">
-        <v>0.006989312506417898</v>
+        <v>0.06012813602757571</v>
       </c>
     </row>
     <row r="195">
@@ -2382,7 +2382,7 @@
         </is>
       </c>
       <c r="B195" t="n">
-        <v>0.0182041739290219</v>
+        <v>0.02404543551626515</v>
       </c>
     </row>
     <row r="196">
@@ -2392,7 +2392,7 @@
         </is>
       </c>
       <c r="B196" t="n">
-        <v>-0.007510338488219204</v>
+        <v>0.020710376599842</v>
       </c>
     </row>
     <row r="197">
@@ -2402,7 +2402,7 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>-0.008931766131444514</v>
+        <v>0.06158265155070207</v>
       </c>
     </row>
     <row r="198">
@@ -2412,7 +2412,7 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>-0.007497696155549876</v>
+        <v>0.06435348133916988</v>
       </c>
     </row>
     <row r="199">
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="B199" t="n">
-        <v>-0.00518092787368534</v>
+        <v>0.09216004363259971</v>
       </c>
     </row>
     <row r="200">
@@ -2432,7 +2432,7 @@
         </is>
       </c>
       <c r="B200" t="n">
-        <v>0.01746841796942463</v>
+        <v>0.08395012668624177</v>
       </c>
     </row>
     <row r="201">
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="B201" t="n">
-        <v>0.06253406116212822</v>
+        <v>0.08462099062452175</v>
       </c>
     </row>
     <row r="202">
@@ -2452,7 +2452,7 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>0.08661047360704582</v>
+        <v>0.09773330793961936</v>
       </c>
     </row>
     <row r="203">
@@ -2462,7 +2462,7 @@
         </is>
       </c>
       <c r="B203" t="n">
-        <v>0.06415575405580742</v>
+        <v>0.1100992181117292</v>
       </c>
     </row>
     <row r="204">
@@ -2472,7 +2472,7 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>0.05242341260554392</v>
+        <v>0.05856931363665756</v>
       </c>
     </row>
     <row r="205">
@@ -2482,7 +2482,7 @@
         </is>
       </c>
       <c r="B205" t="n">
-        <v>0.01735153018018887</v>
+        <v>0.06751105382964306</v>
       </c>
     </row>
     <row r="206">
@@ -2492,7 +2492,7 @@
         </is>
       </c>
       <c r="B206" t="n">
-        <v>0.02267894074604712</v>
+        <v>0.0881289943485084</v>
       </c>
     </row>
     <row r="207">
@@ -2502,7 +2502,7 @@
         </is>
       </c>
       <c r="B207" t="n">
-        <v>0.04549684467769467</v>
+        <v>0.05273431624833226</v>
       </c>
     </row>
     <row r="208">
@@ -2512,7 +2512,7 @@
         </is>
       </c>
       <c r="B208" t="n">
-        <v>0.0294124584078482</v>
+        <v>0.05617525871612304</v>
       </c>
     </row>
     <row r="209">
@@ -2522,7 +2522,7 @@
         </is>
       </c>
       <c r="B209" t="n">
-        <v>0.03549681848574337</v>
+        <v>0.04868402370523402</v>
       </c>
     </row>
     <row r="210">
@@ -2532,7 +2532,7 @@
         </is>
       </c>
       <c r="B210" t="n">
-        <v>0.03883621826158044</v>
+        <v>0.03491706010810197</v>
       </c>
     </row>
     <row r="211">
@@ -2542,7 +2542,7 @@
         </is>
       </c>
       <c r="B211" t="n">
-        <v>0.02193319733010071</v>
+        <v>0.09037785476346648</v>
       </c>
     </row>
     <row r="212">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B212" t="n">
-        <v>0.01914274649376979</v>
+        <v>0.08380537218045045</v>
       </c>
     </row>
     <row r="213">
@@ -2562,7 +2562,7 @@
         </is>
       </c>
       <c r="B213" t="n">
-        <v>-0.03326062872531219</v>
+        <v>0.06820193374568627</v>
       </c>
     </row>
     <row r="214">
@@ -2572,7 +2572,7 @@
         </is>
       </c>
       <c r="B214" t="n">
-        <v>-0.03043622043701711</v>
+        <v>0.06581741050913063</v>
       </c>
     </row>
     <row r="215">
@@ -2582,7 +2582,7 @@
         </is>
       </c>
       <c r="B215" t="n">
-        <v>-0.02749395076145398</v>
+        <v>0.03470707945986889</v>
       </c>
     </row>
     <row r="216">
@@ -2592,7 +2592,7 @@
         </is>
       </c>
       <c r="B216" t="n">
-        <v>-0.06597065478323451</v>
+        <v>-0.01737471864536496</v>
       </c>
     </row>
     <row r="217">
@@ -2602,7 +2602,7 @@
         </is>
       </c>
       <c r="B217" t="n">
-        <v>-0.005644762953222773</v>
+        <v>-0.02364581973949005</v>
       </c>
     </row>
     <row r="218">
@@ -2612,7 +2612,7 @@
         </is>
       </c>
       <c r="B218" t="n">
-        <v>-0.02642080579812846</v>
+        <v>-0.01961423652641287</v>
       </c>
     </row>
     <row r="219">
@@ -2622,7 +2622,7 @@
         </is>
       </c>
       <c r="B219" t="n">
-        <v>-0.03108108888154509</v>
+        <v>0.03709487106838193</v>
       </c>
     </row>
     <row r="220">
@@ -2632,7 +2632,7 @@
         </is>
       </c>
       <c r="B220" t="n">
-        <v>0.0271701480022335</v>
+        <v>-0.01206529918583633</v>
       </c>
     </row>
     <row r="221">
@@ -2642,7 +2642,7 @@
         </is>
       </c>
       <c r="B221" t="n">
-        <v>0.001765602641730437</v>
+        <v>-0.002993352836436992</v>
       </c>
     </row>
     <row r="222">
@@ -2652,7 +2652,7 @@
         </is>
       </c>
       <c r="B222" t="n">
-        <v>0.02387622427910614</v>
+        <v>0.01496419109981427</v>
       </c>
     </row>
     <row r="223">
@@ -2662,7 +2662,7 @@
         </is>
       </c>
       <c r="B223" t="n">
-        <v>-0.002782786275454273</v>
+        <v>0.007626508778853336</v>
       </c>
     </row>
     <row r="224">
@@ -2672,7 +2672,7 @@
         </is>
       </c>
       <c r="B224" t="n">
-        <v>-0.02078144408793401</v>
+        <v>0.01867855532478373</v>
       </c>
     </row>
     <row r="225">
@@ -2682,7 +2682,7 @@
         </is>
       </c>
       <c r="B225" t="n">
-        <v>-0.01459604718883475</v>
+        <v>0.02238482140222203</v>
       </c>
     </row>
     <row r="226">
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="B226" t="n">
-        <v>-0.002884263695180596</v>
+        <v>-0.01371617643703146</v>
       </c>
     </row>
     <row r="227">
@@ -2702,7 +2702,7 @@
         </is>
       </c>
       <c r="B227" t="n">
-        <v>-0.02202310957470888</v>
+        <v>0.02920961658441761</v>
       </c>
     </row>
     <row r="228">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B228" t="n">
-        <v>0.04861303067735034</v>
+        <v>0.03617964462939821</v>
       </c>
     </row>
     <row r="229">
@@ -2722,7 +2722,7 @@
         </is>
       </c>
       <c r="B229" t="n">
-        <v>-0.01677262853593801</v>
+        <v>-0.0339298025384648</v>
       </c>
     </row>
     <row r="230">
@@ -2732,7 +2732,7 @@
         </is>
       </c>
       <c r="B230" t="n">
-        <v>0.01555815066777101</v>
+        <v>0.02770042683252373</v>
       </c>
     </row>
     <row r="231">
@@ -2742,7 +2742,7 @@
         </is>
       </c>
       <c r="B231" t="n">
-        <v>0.06743998488410924</v>
+        <v>0.03044651117729529</v>
       </c>
     </row>
     <row r="232">
@@ -2752,7 +2752,7 @@
         </is>
       </c>
       <c r="B232" t="n">
-        <v>0.01895713320902906</v>
+        <v>0.03910590407847565</v>
       </c>
     </row>
     <row r="233">
@@ -2762,7 +2762,7 @@
         </is>
       </c>
       <c r="B233" t="n">
-        <v>0.01700440334274728</v>
+        <v>0.009274271226662899</v>
       </c>
     </row>
     <row r="234">
@@ -2772,7 +2772,7 @@
         </is>
       </c>
       <c r="B234" t="n">
-        <v>0.008963531177054859</v>
+        <v>0.02675697787026449</v>
       </c>
     </row>
     <row r="235">
@@ -2782,7 +2782,7 @@
         </is>
       </c>
       <c r="B235" t="n">
-        <v>0.008214927955344507</v>
+        <v>0.02081777854364559</v>
       </c>
     </row>
     <row r="236">
@@ -2792,7 +2792,7 @@
         </is>
       </c>
       <c r="B236" t="n">
-        <v>0.09007973025539823</v>
+        <v>0.02554740312153892</v>
       </c>
     </row>
     <row r="237">
@@ -2802,7 +2802,7 @@
         </is>
       </c>
       <c r="B237" t="n">
-        <v>0.01072650664498331</v>
+        <v>-0.009054060001155552</v>
       </c>
     </row>
     <row r="238">
@@ -2812,7 +2812,7 @@
         </is>
       </c>
       <c r="B238" t="n">
-        <v>-0.001356270507182187</v>
+        <v>-0.005664807872786318</v>
       </c>
     </row>
     <row r="239">
@@ -2822,7 +2822,7 @@
         </is>
       </c>
       <c r="B239" t="n">
-        <v>0.01490373045686422</v>
+        <v>0.003941662258666627</v>
       </c>
     </row>
     <row r="240">
@@ -2832,7 +2832,7 @@
         </is>
       </c>
       <c r="B240" t="n">
-        <v>0.05874198667706771</v>
+        <v>0.0178335918138326</v>
       </c>
     </row>
     <row r="241">
@@ -2842,7 +2842,7 @@
         </is>
       </c>
       <c r="B241" t="n">
-        <v>0.07352396734259616</v>
+        <v>0.07048816082698546</v>
       </c>
     </row>
     <row r="242">
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="B242" t="n">
-        <v>0.03742648492789423</v>
+        <v>0.06201858599562073</v>
       </c>
     </row>
     <row r="243">
@@ -2862,7 +2862,7 @@
         </is>
       </c>
       <c r="B243" t="n">
-        <v>0.01392130796127543</v>
+        <v>0.04496483427738921</v>
       </c>
     </row>
     <row r="244">
@@ -2872,7 +2872,7 @@
         </is>
       </c>
       <c r="B244" t="n">
-        <v>-0.0003913224462330841</v>
+        <v>0.04040989274064886</v>
       </c>
     </row>
     <row r="245">
@@ -2882,7 +2882,7 @@
         </is>
       </c>
       <c r="B245" t="n">
-        <v>0.03600922176442263</v>
+        <v>0.06631031704024615</v>
       </c>
     </row>
     <row r="246">
@@ -2892,7 +2892,7 @@
         </is>
       </c>
       <c r="B246" t="n">
-        <v>0.01642940355196081</v>
+        <v>0.01795528945059968</v>
       </c>
     </row>
     <row r="247">
@@ -2902,7 +2902,7 @@
         </is>
       </c>
       <c r="B247" t="n">
-        <v>0.03774226240027263</v>
+        <v>0.01268022208800952</v>
       </c>
     </row>
     <row r="248">
@@ -2912,7 +2912,7 @@
         </is>
       </c>
       <c r="B248" t="n">
-        <v>0.03163259499046647</v>
+        <v>0.03873381483349331</v>
       </c>
     </row>
     <row r="249">
@@ -2922,7 +2922,7 @@
         </is>
       </c>
       <c r="B249" t="n">
-        <v>-0.009742641944277297</v>
+        <v>0.03607462149915758</v>
       </c>
     </row>
     <row r="250">
@@ -2932,7 +2932,7 @@
         </is>
       </c>
       <c r="B250" t="n">
-        <v>-0.007455517196319954</v>
+        <v>-0.0002892761332883598</v>
       </c>
     </row>
     <row r="251">
@@ -2942,7 +2942,7 @@
         </is>
       </c>
       <c r="B251" t="n">
-        <v>-0.01872990607910954</v>
+        <v>0.03026595447891134</v>
       </c>
     </row>
     <row r="252">
@@ -2952,7 +2952,7 @@
         </is>
       </c>
       <c r="B252" t="n">
-        <v>0.002169313770720613</v>
+        <v>0.01431479646648236</v>
       </c>
     </row>
     <row r="253">
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="B253" t="n">
-        <v>-0.005678156783777505</v>
+        <v>0.006112807190205327</v>
       </c>
     </row>
     <row r="254">
@@ -2972,7 +2972,7 @@
         </is>
       </c>
       <c r="B254" t="n">
-        <v>0.004871474602007263</v>
+        <v>0.02077478247025953</v>
       </c>
     </row>
     <row r="255">
@@ -2982,7 +2982,7 @@
         </is>
       </c>
       <c r="B255" t="n">
-        <v>0.05533856112738689</v>
+        <v>0.04062904002608231</v>
       </c>
     </row>
     <row r="256">
@@ -2992,7 +2992,7 @@
         </is>
       </c>
       <c r="B256" t="n">
-        <v>0.01429768714755014</v>
+        <v>0.03905374575940404</v>
       </c>
     </row>
     <row r="257">
@@ -3002,7 +3002,7 @@
         </is>
       </c>
       <c r="B257" t="n">
-        <v>0.008510005851848825</v>
+        <v>0.03391219707359996</v>
       </c>
     </row>
     <row r="258">
@@ -3012,7 +3012,7 @@
         </is>
       </c>
       <c r="B258" t="n">
-        <v>-0.0003680034223455084</v>
+        <v>0.02224014417420901</v>
       </c>
     </row>
     <row r="259">
@@ -3022,7 +3022,7 @@
         </is>
       </c>
       <c r="B259" t="n">
-        <v>-0.04916728769359449</v>
+        <v>-0.01096594087522659</v>
       </c>
     </row>
     <row r="260">
@@ -3032,7 +3032,7 @@
         </is>
       </c>
       <c r="B260" t="n">
-        <v>-0.03571622566428417</v>
+        <v>-0.02382637204767051</v>
       </c>
     </row>
     <row r="261">
@@ -3042,7 +3042,7 @@
         </is>
       </c>
       <c r="B261" t="n">
-        <v>0.01638406937266201</v>
+        <v>0.02941551563976432</v>
       </c>
     </row>
     <row r="262">
@@ -3052,7 +3052,7 @@
         </is>
       </c>
       <c r="B262" t="n">
-        <v>-0.004311742588467697</v>
+        <v>0.04392402894205488</v>
       </c>
     </row>
     <row r="263">
@@ -3062,7 +3062,7 @@
         </is>
       </c>
       <c r="B263" t="n">
-        <v>0.007260105368480371</v>
+        <v>-0.006963026516531127</v>
       </c>
     </row>
     <row r="264">
@@ -3072,7 +3072,7 @@
         </is>
       </c>
       <c r="B264" t="n">
-        <v>0.0191930553752345</v>
+        <v>0.006129435024441829</v>
       </c>
     </row>
     <row r="265">
@@ -3082,7 +3082,7 @@
         </is>
       </c>
       <c r="B265" t="n">
-        <v>-0.01731497614079405</v>
+        <v>0.003301680257541809</v>
       </c>
     </row>
     <row r="266">
@@ -3092,7 +3092,7 @@
         </is>
       </c>
       <c r="B266" t="n">
-        <v>-0.01515811018765722</v>
+        <v>-0.01328176973939634</v>
       </c>
     </row>
     <row r="267">
@@ -3102,7 +3102,7 @@
         </is>
       </c>
       <c r="B267" t="n">
-        <v>-0.03370911615274366</v>
+        <v>0.000407498682303311</v>
       </c>
     </row>
     <row r="268">
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="B268" t="n">
-        <v>-0.05927164121929439</v>
+        <v>0.03037376496287997</v>
       </c>
     </row>
     <row r="269">
@@ -3122,7 +3122,7 @@
         </is>
       </c>
       <c r="B269" t="n">
-        <v>-0.02252494554375708</v>
+        <v>-0.02995842634461138</v>
       </c>
     </row>
     <row r="270">
@@ -3132,7 +3132,7 @@
         </is>
       </c>
       <c r="B270" t="n">
-        <v>-0.07300184168677772</v>
+        <v>-0.0335514482363732</v>
       </c>
     </row>
     <row r="271">
@@ -3142,7 +3142,7 @@
         </is>
       </c>
       <c r="B271" t="n">
-        <v>-0.0005755830249770786</v>
+        <v>0.00621240007344588</v>
       </c>
     </row>
     <row r="272">
@@ -3152,7 +3152,7 @@
         </is>
       </c>
       <c r="B272" t="n">
-        <v>-0.005981716305401314</v>
+        <v>0.02891708090737019</v>
       </c>
     </row>
     <row r="273">
@@ -3162,7 +3162,7 @@
         </is>
       </c>
       <c r="B273" t="n">
-        <v>-0.01903472857321634</v>
+        <v>-0.007995255110984633</v>
       </c>
     </row>
     <row r="274">
@@ -3172,7 +3172,7 @@
         </is>
       </c>
       <c r="B274" t="n">
-        <v>-0.05047591918280035</v>
+        <v>-0.04799978660016406</v>
       </c>
     </row>
     <row r="275">
@@ -3182,7 +3182,7 @@
         </is>
       </c>
       <c r="B275" t="n">
-        <v>-0.05352337016533053</v>
+        <v>-0.06061887092930023</v>
       </c>
     </row>
     <row r="276">
@@ -3192,7 +3192,7 @@
         </is>
       </c>
       <c r="B276" t="n">
-        <v>-0.07448155990246424</v>
+        <v>-0.09207838463906413</v>
       </c>
     </row>
     <row r="277">
@@ -3202,7 +3202,7 @@
         </is>
       </c>
       <c r="B277" t="n">
-        <v>-0.07747949825675862</v>
+        <v>-0.05305794187990266</v>
       </c>
     </row>
     <row r="278">
@@ -3212,7 +3212,7 @@
         </is>
       </c>
       <c r="B278" t="n">
-        <v>-0.08459568579604641</v>
+        <v>-0.0723510313540726</v>
       </c>
     </row>
     <row r="279">
@@ -3222,7 +3222,7 @@
         </is>
       </c>
       <c r="B279" t="n">
-        <v>-0.08205917105951348</v>
+        <v>-0.05379024639535086</v>
       </c>
     </row>
     <row r="280">
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="B280" t="n">
-        <v>-0.1042225422708627</v>
+        <v>-0.1372843787346107</v>
       </c>
     </row>
     <row r="281">
@@ -3242,7 +3242,7 @@
         </is>
       </c>
       <c r="B281" t="n">
-        <v>-0.08409759046750394</v>
+        <v>-0.09378955605016703</v>
       </c>
     </row>
     <row r="282">
@@ -3252,7 +3252,7 @@
         </is>
       </c>
       <c r="B282" t="n">
-        <v>-0.1270434307651935</v>
+        <v>-0.09718510175781829</v>
       </c>
     </row>
     <row r="283">
@@ -3262,7 +3262,7 @@
         </is>
       </c>
       <c r="B283" t="n">
-        <v>-0.1299865450791177</v>
+        <v>-0.139741009229609</v>
       </c>
     </row>
     <row r="284">
@@ -3272,7 +3272,7 @@
         </is>
       </c>
       <c r="B284" t="n">
-        <v>-0.1138074505426123</v>
+        <v>-0.05899044330981713</v>
       </c>
     </row>
     <row r="285">
@@ -3282,7 +3282,7 @@
         </is>
       </c>
       <c r="B285" t="n">
-        <v>-0.09336183151718182</v>
+        <v>-0.1123273715915952</v>
       </c>
     </row>
     <row r="286">
@@ -3292,7 +3292,7 @@
         </is>
       </c>
       <c r="B286" t="n">
-        <v>-0.1468676056552985</v>
+        <v>-0.1570744485848857</v>
       </c>
     </row>
     <row r="287">
@@ -3302,7 +3302,7 @@
         </is>
       </c>
       <c r="B287" t="n">
-        <v>-0.1541333459690008</v>
+        <v>-0.08200204163306214</v>
       </c>
     </row>
     <row r="288">
@@ -3312,7 +3312,7 @@
         </is>
       </c>
       <c r="B288" t="n">
-        <v>-0.1927684714750072</v>
+        <v>-0.1589705280451822</v>
       </c>
     </row>
     <row r="289">
@@ -3322,7 +3322,7 @@
         </is>
       </c>
       <c r="B289" t="n">
-        <v>-0.09317463122426509</v>
+        <v>-0.1090120254623208</v>
       </c>
     </row>
     <row r="290">
@@ -3332,7 +3332,7 @@
         </is>
       </c>
       <c r="B290" t="n">
-        <v>-0.1169781397791014</v>
+        <v>-0.1913969331370459</v>
       </c>
     </row>
     <row r="291">
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="B291" t="n">
-        <v>-0.07724601512226609</v>
+        <v>-0.07483582647336273</v>
       </c>
     </row>
     <row r="292">
@@ -3352,7 +3352,7 @@
         </is>
       </c>
       <c r="B292" t="n">
-        <v>-0.06324286784159631</v>
+        <v>-0.09661317260478833</v>
       </c>
     </row>
     <row r="293">
@@ -3362,7 +3362,7 @@
         </is>
       </c>
       <c r="B293" t="n">
-        <v>-0.04430633150817621</v>
+        <v>-0.04884678153181107</v>
       </c>
     </row>
     <row r="294">
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="B294" t="n">
-        <v>-0.08203177411827624</v>
+        <v>-0.007532216925794149</v>
       </c>
     </row>
     <row r="295">
@@ -3382,7 +3382,7 @@
         </is>
       </c>
       <c r="B295" t="n">
-        <v>-0.06768660407194615</v>
+        <v>-0.03546732966890337</v>
       </c>
     </row>
     <row r="296">
@@ -3392,7 +3392,7 @@
         </is>
       </c>
       <c r="B296" t="n">
-        <v>-0.1272422258273016</v>
+        <v>-0.03499874100656256</v>
       </c>
     </row>
     <row r="297">
@@ -3402,7 +3402,7 @@
         </is>
       </c>
       <c r="B297" t="n">
-        <v>-0.05578871977576217</v>
+        <v>-0.04293917208666088</v>
       </c>
     </row>
     <row r="298">
@@ -3412,7 +3412,7 @@
         </is>
       </c>
       <c r="B298" t="n">
-        <v>-0.1129322955707769</v>
+        <v>-0.05194373268740287</v>
       </c>
     </row>
     <row r="299">
@@ -3422,7 +3422,7 @@
         </is>
       </c>
       <c r="B299" t="n">
-        <v>-0.1014688088796749</v>
+        <v>-0.04907132673083469</v>
       </c>
     </row>
     <row r="300">
@@ -3432,7 +3432,7 @@
         </is>
       </c>
       <c r="B300" t="n">
-        <v>-0.1455281874702413</v>
+        <v>-0.05847277881659715</v>
       </c>
     </row>
     <row r="301">
@@ -3442,7 +3442,7 @@
         </is>
       </c>
       <c r="B301" t="n">
-        <v>-0.1070199393359493</v>
+        <v>-0.08089232685272854</v>
       </c>
     </row>
     <row r="302">
@@ -3452,7 +3452,7 @@
         </is>
       </c>
       <c r="B302" t="n">
-        <v>-0.1346533534512928</v>
+        <v>-0.08416936129197365</v>
       </c>
     </row>
     <row r="303">
@@ -3462,7 +3462,7 @@
         </is>
       </c>
       <c r="B303" t="n">
-        <v>-0.07639353328420054</v>
+        <v>-0.04560117434468067</v>
       </c>
     </row>
     <row r="304">
@@ -3472,7 +3472,7 @@
         </is>
       </c>
       <c r="B304" t="n">
-        <v>-0.1039907962804041</v>
+        <v>-0.06785490233690471</v>
       </c>
     </row>
     <row r="305">
@@ -3482,7 +3482,7 @@
         </is>
       </c>
       <c r="B305" t="n">
-        <v>-0.1363243854642336</v>
+        <v>-0.09534037927406035</v>
       </c>
     </row>
     <row r="306">
@@ -3492,7 +3492,7 @@
         </is>
       </c>
       <c r="B306" t="n">
-        <v>-0.0993913538004072</v>
+        <v>-0.0841805377843991</v>
       </c>
     </row>
     <row r="307">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B307" t="n">
-        <v>-0.08478049662351186</v>
+        <v>-0.03626067174594195</v>
       </c>
     </row>
     <row r="308">
@@ -3512,7 +3512,7 @@
         </is>
       </c>
       <c r="B308" t="n">
-        <v>-0.02234069314465861</v>
+        <v>-0.03775884717035356</v>
       </c>
     </row>
     <row r="309">
@@ -3522,7 +3522,7 @@
         </is>
       </c>
       <c r="B309" t="n">
-        <v>-0.09149592211611807</v>
+        <v>-0.01467712165697406</v>
       </c>
     </row>
     <row r="310">
@@ -3532,7 +3532,7 @@
         </is>
       </c>
       <c r="B310" t="n">
-        <v>0.150275547116079</v>
+        <v>-0.0189793880326185</v>
       </c>
     </row>
     <row r="311">
@@ -3542,7 +3542,7 @@
         </is>
       </c>
       <c r="B311" t="n">
-        <v>-0.04916135183272217</v>
+        <v>0.02955831155958867</v>
       </c>
     </row>
     <row r="312">
@@ -3552,7 +3552,7 @@
         </is>
       </c>
       <c r="B312" t="n">
-        <v>0.01020886835537244</v>
+        <v>0.01605778331102347</v>
       </c>
     </row>
     <row r="313">
@@ -3562,7 +3562,7 @@
         </is>
       </c>
       <c r="B313" t="n">
-        <v>-0.01782648983411786</v>
+        <v>-0.01502159415027775</v>
       </c>
     </row>
     <row r="314">
@@ -3572,7 +3572,7 @@
         </is>
       </c>
       <c r="B314" t="n">
-        <v>0.00165722804623112</v>
+        <v>-0.006783232909565261</v>
       </c>
     </row>
     <row r="315">
@@ -3582,7 +3582,7 @@
         </is>
       </c>
       <c r="B315" t="n">
-        <v>0.02400814276648774</v>
+        <v>0.02815062590691823</v>
       </c>
     </row>
     <row r="316">
@@ -3592,7 +3592,7 @@
         </is>
       </c>
       <c r="B316" t="n">
-        <v>-0.02315035631487001</v>
+        <v>-0.00301911048413071</v>
       </c>
     </row>
     <row r="317">
@@ -3602,7 +3602,7 @@
         </is>
       </c>
       <c r="B317" t="n">
-        <v>-0.0461407641570481</v>
+        <v>0.04302860160791106</v>
       </c>
     </row>
     <row r="318">
@@ -3612,7 +3612,7 @@
         </is>
       </c>
       <c r="B318" t="n">
-        <v>-0.01845658591147943</v>
+        <v>-0.002592792468797342</v>
       </c>
     </row>
     <row r="319">
@@ -3622,7 +3622,7 @@
         </is>
       </c>
       <c r="B319" t="n">
-        <v>-0.02466111531234445</v>
+        <v>-0.01967181927474349</v>
       </c>
     </row>
     <row r="320">
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="B320" t="n">
-        <v>-0.04181004403769142</v>
+        <v>0.01671574797454052</v>
       </c>
     </row>
     <row r="321">
@@ -3642,7 +3642,7 @@
         </is>
       </c>
       <c r="B321" t="n">
-        <v>-0.08536252557050433</v>
+        <v>0.01415647005384393</v>
       </c>
     </row>
     <row r="322">
@@ -3652,7 +3652,7 @@
         </is>
       </c>
       <c r="B322" t="n">
-        <v>-0.03030075327027614</v>
+        <v>-0.02976672212741442</v>
       </c>
     </row>
     <row r="323">
@@ -3662,7 +3662,7 @@
         </is>
       </c>
       <c r="B323" t="n">
-        <v>-0.0773831720437908</v>
+        <v>-0.02125375977186951</v>
       </c>
     </row>
     <row r="324">
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="B324" t="n">
-        <v>0.1490602792461484</v>
+        <v>0.002386923777575976</v>
       </c>
     </row>
     <row r="325">
@@ -3682,7 +3682,7 @@
         </is>
       </c>
       <c r="B325" t="n">
-        <v>0.08456982230361877</v>
+        <v>0.04080452071356934</v>
       </c>
     </row>
     <row r="326">
@@ -3692,7 +3692,7 @@
         </is>
       </c>
       <c r="B326" t="n">
-        <v>-0.08904762310339465</v>
+        <v>-0.01038765775829268</v>
       </c>
     </row>
     <row r="327">
@@ -3702,7 +3702,7 @@
         </is>
       </c>
       <c r="B327" t="n">
-        <v>-0.0404619360881105</v>
+        <v>-0.004793942520444542</v>
       </c>
     </row>
     <row r="328">
@@ -3712,7 +3712,7 @@
         </is>
       </c>
       <c r="B328" t="n">
-        <v>-0.04105386138458961</v>
+        <v>0.03268116026408632</v>
       </c>
     </row>
     <row r="329">
@@ -3722,7 +3722,7 @@
         </is>
       </c>
       <c r="B329" t="n">
-        <v>-0.04551876662144039</v>
+        <v>0.01847894502964963</v>
       </c>
     </row>
     <row r="330">
@@ -3732,7 +3732,7 @@
         </is>
       </c>
       <c r="B330" t="n">
-        <v>-0.008267635092190863</v>
+        <v>0.02300666983626538</v>
       </c>
     </row>
     <row r="331">
@@ -3742,7 +3742,7 @@
         </is>
       </c>
       <c r="B331" t="n">
-        <v>0.0147219825479706</v>
+        <v>0.03647745754752559</v>
       </c>
     </row>
     <row r="332">
@@ -3752,7 +3752,7 @@
         </is>
       </c>
       <c r="B332" t="n">
-        <v>0.006174372522078334</v>
+        <v>0.04371504639249287</v>
       </c>
     </row>
     <row r="333">
@@ -3762,7 +3762,7 @@
         </is>
       </c>
       <c r="B333" t="n">
-        <v>0.03330792937092802</v>
+        <v>0.04994539386210688</v>
       </c>
     </row>
     <row r="334">
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="B334" t="n">
-        <v>0.00532134503999472</v>
+        <v>0.05929926302776056</v>
       </c>
     </row>
     <row r="335">
@@ -3782,7 +3782,7 @@
         </is>
       </c>
       <c r="B335" t="n">
-        <v>-0.03048995209058205</v>
+        <v>0.05063012246043196</v>
       </c>
     </row>
     <row r="336">
@@ -3792,7 +3792,7 @@
         </is>
       </c>
       <c r="B336" t="n">
-        <v>-0.008253224415031565</v>
+        <v>0.06505882871248721</v>
       </c>
     </row>
     <row r="337">
@@ -3802,7 +3802,7 @@
         </is>
       </c>
       <c r="B337" t="n">
-        <v>-0.03250349567987034</v>
+        <v>-0.02675782477677177</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Regression/news_index_dire_lex_PMI.xlsx
+++ b/Data/Regression/news_index_dire_lex_PMI.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.04733470484790057</v>
+        <v>0.1394679556726884</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.04257353220700438</v>
+        <v>0.1279263648107314</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01482594780256615</v>
+        <v>0.1069294569680195</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.05408888513938304</v>
+        <v>0.1355446585242563</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01510866015259563</v>
+        <v>0.08567562028421889</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.029430824757783</v>
+        <v>0.121049337859442</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.009387155634719544</v>
+        <v>0.09676693971930131</v>
       </c>
     </row>
     <row r="9">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.07312425834857038</v>
+        <v>0.1422189446176921</v>
       </c>
     </row>
     <row r="10">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01377709373765912</v>
+        <v>0.08296334628345564</v>
       </c>
     </row>
     <row r="11">
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.005518002827285644</v>
+        <v>0.08854123735696362</v>
       </c>
     </row>
     <row r="12">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0429782653558386</v>
+        <v>0.1256199423408728</v>
       </c>
     </row>
     <row r="13">
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.02684599986954448</v>
+        <v>0.09827723801825786</v>
       </c>
     </row>
     <row r="14">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.04878172589542555</v>
+        <v>0.1363115813335802</v>
       </c>
     </row>
     <row r="15">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.03020923111064609</v>
+        <v>0.09406750648812785</v>
       </c>
     </row>
     <row r="16">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.02780992871302262</v>
+        <v>0.1224212108648861</v>
       </c>
     </row>
     <row r="17">
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.03426985834570741</v>
+        <v>0.1025913195540556</v>
       </c>
     </row>
     <row r="18">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.02077563454269729</v>
+        <v>0.08543733716538596</v>
       </c>
     </row>
     <row r="19">
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.00456016046283441</v>
+        <v>0.08463708479307945</v>
       </c>
     </row>
     <row r="20">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.01275679644592765</v>
+        <v>0.05407176013638269</v>
       </c>
     </row>
     <row r="21">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.005647064695681752</v>
+        <v>0.06701715669286938</v>
       </c>
     </row>
     <row r="22">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.01383807843390885</v>
+        <v>0.0574237832426509</v>
       </c>
     </row>
     <row r="23">
@@ -662,7 +662,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.02223175708057273</v>
+        <v>0.09479043578857821</v>
       </c>
     </row>
     <row r="24">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.005057042608022481</v>
+        <v>0.05503687395226866</v>
       </c>
     </row>
     <row r="25">
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.02904674263394692</v>
+        <v>0.08887631967429237</v>
       </c>
     </row>
     <row r="26">
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.04587928525048227</v>
+        <v>0.1275169779690267</v>
       </c>
     </row>
     <row r="27">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.0227037402205332</v>
+        <v>0.1104277269480338</v>
       </c>
     </row>
     <row r="28">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.02706863888891189</v>
+        <v>0.09590428497808061</v>
       </c>
     </row>
     <row r="29">
@@ -722,7 +722,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.01513469701232244</v>
+        <v>0.06785656383963996</v>
       </c>
     </row>
     <row r="30">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.02341468302633825</v>
+        <v>0.09743837921033703</v>
       </c>
     </row>
     <row r="31">
@@ -742,7 +742,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.04019937912215546</v>
+        <v>0.1153045356616017</v>
       </c>
     </row>
     <row r="32">
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.01242304023903573</v>
+        <v>0.08451145422055679</v>
       </c>
     </row>
     <row r="33">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.01367743463887303</v>
+        <v>0.09000001803020796</v>
       </c>
     </row>
     <row r="34">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.05333543551091844</v>
+        <v>0.1217274926590947</v>
       </c>
     </row>
     <row r="35">
@@ -782,7 +782,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.005642604983265862</v>
+        <v>0.09766981030280479</v>
       </c>
     </row>
     <row r="36">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-0.01268382241661301</v>
+        <v>0.07406132666685224</v>
       </c>
     </row>
     <row r="37">
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-0.003883313326202011</v>
+        <v>0.07241462335455656</v>
       </c>
     </row>
     <row r="38">
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-0.004220895201733515</v>
+        <v>0.08579752387673339</v>
       </c>
     </row>
     <row r="39">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.01358339145238989</v>
+        <v>0.08261996601500135</v>
       </c>
     </row>
     <row r="40">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.01031792977511872</v>
+        <v>0.08725412277816165</v>
       </c>
     </row>
     <row r="41">
@@ -842,7 +842,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-0.006642300132702065</v>
+        <v>0.05557295165095583</v>
       </c>
     </row>
     <row r="42">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.04187532817278566</v>
+        <v>0.1018856137603157</v>
       </c>
     </row>
     <row r="43">
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.009142946534706046</v>
+        <v>0.07146308945665575</v>
       </c>
     </row>
     <row r="44">
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.01551528892212068</v>
+        <v>0.08951160144920459</v>
       </c>
     </row>
     <row r="45">
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.01866703106595862</v>
+        <v>0.09082749090499137</v>
       </c>
     </row>
     <row r="46">
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.01723958172641422</v>
+        <v>0.0819135244784517</v>
       </c>
     </row>
     <row r="47">
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-0.00257644013116703</v>
+        <v>0.07615999452976345</v>
       </c>
     </row>
     <row r="48">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.02215265470702495</v>
+        <v>0.09331539531842854</v>
       </c>
     </row>
     <row r="49">
@@ -922,7 +922,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.01848665717569931</v>
+        <v>0.1055106349352133</v>
       </c>
     </row>
     <row r="50">
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.0162636403123418</v>
+        <v>0.104656548576841</v>
       </c>
     </row>
     <row r="51">
@@ -942,7 +942,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.01618365749513304</v>
+        <v>0.09545840241500758</v>
       </c>
     </row>
     <row r="52">
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.003945394658917661</v>
+        <v>0.08342147730790164</v>
       </c>
     </row>
     <row r="53">
@@ -962,7 +962,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>-0.01464921299787835</v>
+        <v>0.06535693346077334</v>
       </c>
     </row>
     <row r="54">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.002806656629160288</v>
+        <v>0.07105896117705089</v>
       </c>
     </row>
     <row r="55">
@@ -982,7 +982,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.002798228943836342</v>
+        <v>0.08679173586700858</v>
       </c>
     </row>
     <row r="56">
@@ -992,7 +992,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>-0.0006326198798187484</v>
+        <v>0.05908156045984197</v>
       </c>
     </row>
     <row r="57">
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>-0.005825035170085787</v>
+        <v>0.09350291060345366</v>
       </c>
     </row>
     <row r="58">
@@ -1012,7 +1012,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.00188573851024345</v>
+        <v>0.07585331350996569</v>
       </c>
     </row>
     <row r="59">
@@ -1022,7 +1022,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>-0.01181513123624706</v>
+        <v>0.07175316618104038</v>
       </c>
     </row>
     <row r="60">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>-0.0207258414280591</v>
+        <v>0.06981788406001545</v>
       </c>
     </row>
     <row r="61">
@@ -1042,7 +1042,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.02085777210966893</v>
+        <v>0.09191718620591796</v>
       </c>
     </row>
     <row r="62">
@@ -1052,7 +1052,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>-0.01624115344842531</v>
+        <v>0.07115194869966947</v>
       </c>
     </row>
     <row r="63">
@@ -1062,7 +1062,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.006889097482623835</v>
+        <v>0.07782025464778192</v>
       </c>
     </row>
     <row r="64">
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>-0.01924959164189852</v>
+        <v>0.06800975563703233</v>
       </c>
     </row>
     <row r="65">
@@ -1082,7 +1082,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.01037074828144894</v>
+        <v>0.08642771820668868</v>
       </c>
     </row>
     <row r="66">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>-0.03960865961474316</v>
+        <v>0.03562766545585475</v>
       </c>
     </row>
     <row r="67">
@@ -1102,7 +1102,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.01460393160372534</v>
+        <v>0.09716218600481408</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>-0.0001744485170406656</v>
+        <v>0.07432803090014842</v>
       </c>
     </row>
     <row r="69">
@@ -1122,7 +1122,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.003880921636450171</v>
+        <v>0.082518770966665</v>
       </c>
     </row>
     <row r="70">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.003161927239322585</v>
+        <v>0.06647347292180907</v>
       </c>
     </row>
     <row r="71">
@@ -1142,7 +1142,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.0388660499012914</v>
+        <v>0.09486321787078106</v>
       </c>
     </row>
     <row r="72">
@@ -1152,7 +1152,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.007711318285478546</v>
+        <v>0.07929408517692599</v>
       </c>
     </row>
     <row r="73">
@@ -1162,7 +1162,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>-0.02672218452378353</v>
+        <v>0.0484327965436956</v>
       </c>
     </row>
     <row r="74">
@@ -1172,7 +1172,7 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.02491930659489721</v>
+        <v>0.08758128970003842</v>
       </c>
     </row>
     <row r="75">
@@ -1182,7 +1182,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.0131174557351851</v>
+        <v>0.09085777928798459</v>
       </c>
     </row>
     <row r="76">
@@ -1192,7 +1192,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>-0.02564137628662577</v>
+        <v>0.05337379026399902</v>
       </c>
     </row>
     <row r="77">
@@ -1202,7 +1202,7 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>-0.01719308543455881</v>
+        <v>0.0558362725821463</v>
       </c>
     </row>
     <row r="78">
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.01887412852562548</v>
+        <v>0.07642135435537416</v>
       </c>
     </row>
     <row r="79">
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.04115477408267613</v>
+        <v>0.1054967157241971</v>
       </c>
     </row>
     <row r="80">
@@ -1232,7 +1232,7 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.01313557437167395</v>
+        <v>0.07446498945139812</v>
       </c>
     </row>
     <row r="81">
@@ -1242,7 +1242,7 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.01614913320237646</v>
+        <v>0.08142537177493282</v>
       </c>
     </row>
     <row r="82">
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.00728821899698274</v>
+        <v>0.04689448450353954</v>
       </c>
     </row>
     <row r="83">
@@ -1262,7 +1262,7 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>-0.002777476041737458</v>
+        <v>0.06927014239342393</v>
       </c>
     </row>
     <row r="84">
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.01469636261583626</v>
+        <v>0.07417325310880486</v>
       </c>
     </row>
     <row r="85">
@@ -1282,7 +1282,7 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>-0.01299745745014985</v>
+        <v>0.08307963272791036</v>
       </c>
     </row>
     <row r="86">
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>-0.04557620208967574</v>
+        <v>0.0423211833046462</v>
       </c>
     </row>
     <row r="87">
@@ -1302,7 +1302,7 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.01369953453291161</v>
+        <v>0.1085862949760693</v>
       </c>
     </row>
     <row r="88">
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.01803986668226104</v>
+        <v>0.08735304054031921</v>
       </c>
     </row>
     <row r="89">
@@ -1322,7 +1322,7 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>-0.01372823858282247</v>
+        <v>0.04785139495977403</v>
       </c>
     </row>
     <row r="90">
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.01391482370818755</v>
+        <v>0.08152447260304405</v>
       </c>
     </row>
     <row r="91">
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.01906726775096931</v>
+        <v>0.07315755013560432</v>
       </c>
     </row>
     <row r="92">
@@ -1352,7 +1352,7 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>-0.01490295004570014</v>
+        <v>0.06716862261675449</v>
       </c>
     </row>
     <row r="93">
@@ -1362,7 +1362,7 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.01270622338637415</v>
+        <v>0.07038566010223429</v>
       </c>
     </row>
     <row r="94">
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>-0.02361950483655971</v>
+        <v>0.05944547111305896</v>
       </c>
     </row>
     <row r="95">
@@ -1382,7 +1382,7 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>-0.001384497778749214</v>
+        <v>0.09038563480947673</v>
       </c>
     </row>
     <row r="96">
@@ -1392,7 +1392,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>-0.01061685310724375</v>
+        <v>0.06984299759817192</v>
       </c>
     </row>
     <row r="97">
@@ -1402,7 +1402,7 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>-0.02531796552464301</v>
+        <v>0.05021422597416898</v>
       </c>
     </row>
     <row r="98">
@@ -1412,7 +1412,7 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.01225424546344489</v>
+        <v>0.06682804821176765</v>
       </c>
     </row>
     <row r="99">
@@ -1422,7 +1422,7 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>-0.04398188261689312</v>
+        <v>0.02901627073860171</v>
       </c>
     </row>
     <row r="100">
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.02068519197708237</v>
+        <v>0.09160885924340638</v>
       </c>
     </row>
     <row r="101">
@@ -1442,7 +1442,7 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.03193989083674433</v>
+        <v>0.09753228431097037</v>
       </c>
     </row>
     <row r="102">
@@ -1452,7 +1452,7 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.03422382340096691</v>
+        <v>0.1193604544695439</v>
       </c>
     </row>
     <row r="103">
@@ -1462,7 +1462,7 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0.01900178771146857</v>
+        <v>0.08622619430317931</v>
       </c>
     </row>
     <row r="104">
@@ -1472,7 +1472,7 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>-0.01347886786722361</v>
+        <v>0.0690593306488634</v>
       </c>
     </row>
     <row r="105">
@@ -1482,7 +1482,7 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>-0.0004131007257820983</v>
+        <v>0.07730408913170055</v>
       </c>
     </row>
     <row r="106">
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0.01634347501601486</v>
+        <v>0.09825991511332484</v>
       </c>
     </row>
     <row r="107">
@@ -1502,7 +1502,7 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0.00534897550583232</v>
+        <v>0.07830525250979418</v>
       </c>
     </row>
     <row r="108">
@@ -1512,7 +1512,7 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>-0.0216501336729851</v>
+        <v>0.05164210863928093</v>
       </c>
     </row>
     <row r="109">
@@ -1522,7 +1522,7 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0.02182047766026561</v>
+        <v>0.08744424825389199</v>
       </c>
     </row>
     <row r="110">
@@ -1532,7 +1532,7 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0.005631123269498034</v>
+        <v>0.07161524049034075</v>
       </c>
     </row>
     <row r="111">
@@ -1542,7 +1542,7 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0.0048689023877548</v>
+        <v>0.07720861492263081</v>
       </c>
     </row>
     <row r="112">
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0.02720905554620403</v>
+        <v>0.1039411067124908</v>
       </c>
     </row>
     <row r="113">
@@ -1562,7 +1562,7 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>-0.01074403071811186</v>
+        <v>0.05397829656528114</v>
       </c>
     </row>
     <row r="114">
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0.01026980569664113</v>
+        <v>0.1050712531269227</v>
       </c>
     </row>
     <row r="115">
@@ -1582,7 +1582,7 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0.03240558697531828</v>
+        <v>0.1073199092206007</v>
       </c>
     </row>
     <row r="116">
@@ -1592,7 +1592,7 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>-0.01781110722682397</v>
+        <v>0.04796042175466625</v>
       </c>
     </row>
     <row r="117">
@@ -1602,7 +1602,7 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0.03262075558334112</v>
+        <v>0.0997025331403481</v>
       </c>
     </row>
     <row r="118">
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0.05178432535520596</v>
+        <v>0.135466472362021</v>
       </c>
     </row>
     <row r="119">
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0.0343146893804569</v>
+        <v>0.1210697868241189</v>
       </c>
     </row>
     <row r="120">
@@ -1632,7 +1632,7 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>-0.008917343834182587</v>
+        <v>0.08211972977996534</v>
       </c>
     </row>
     <row r="121">
@@ -1642,7 +1642,7 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>0.01452841341204518</v>
+        <v>0.09430030679049406</v>
       </c>
     </row>
     <row r="122">
@@ -1652,7 +1652,7 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>0.0631835783777704</v>
+        <v>0.1415779312473664</v>
       </c>
     </row>
     <row r="123">
@@ -1662,7 +1662,7 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>0.1193890705542001</v>
+        <v>0.1818734889848814</v>
       </c>
     </row>
     <row r="124">
@@ -1672,7 +1672,7 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>0.01246200905814593</v>
+        <v>0.09354172911110788</v>
       </c>
     </row>
     <row r="125">
@@ -1682,7 +1682,7 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>0.05112906356454004</v>
+        <v>0.1182305522402596</v>
       </c>
     </row>
     <row r="126">
@@ -1692,7 +1692,7 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>0.0386054948365273</v>
+        <v>0.1084629417604895</v>
       </c>
     </row>
     <row r="127">
@@ -1702,7 +1702,7 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0.02836909683222404</v>
+        <v>0.0995007856878186</v>
       </c>
     </row>
     <row r="128">
@@ -1712,7 +1712,7 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>0.02593032693644765</v>
+        <v>0.09407710117576623</v>
       </c>
     </row>
     <row r="129">
@@ -1722,7 +1722,7 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>0.02674807655695414</v>
+        <v>0.08175782241332649</v>
       </c>
     </row>
     <row r="130">
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>0.03063448407536805</v>
+        <v>0.1071713550978488</v>
       </c>
     </row>
     <row r="131">
@@ -1742,7 +1742,7 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>-0.04932220960827249</v>
+        <v>0.027285133780892</v>
       </c>
     </row>
     <row r="132">
@@ -1752,7 +1752,7 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>-0.009056508586639768</v>
+        <v>0.05660507165681673</v>
       </c>
     </row>
     <row r="133">
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>0.01429200769583342</v>
+        <v>0.1065850868942292</v>
       </c>
     </row>
     <row r="134">
@@ -1772,7 +1772,7 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>0.06130241950018565</v>
+        <v>0.1454054894665986</v>
       </c>
     </row>
     <row r="135">
@@ -1782,7 +1782,7 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>0.0188954325282108</v>
+        <v>0.08524984997151265</v>
       </c>
     </row>
     <row r="136">
@@ -1792,7 +1792,7 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>0.06301505027526373</v>
+        <v>0.1339762444508923</v>
       </c>
     </row>
     <row r="137">
@@ -1802,7 +1802,7 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>-0.004253431404092508</v>
+        <v>0.07842203880662799</v>
       </c>
     </row>
     <row r="138">
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>0.04067050662936263</v>
+        <v>0.1135978414798317</v>
       </c>
     </row>
     <row r="139">
@@ -1822,7 +1822,7 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>0.01218944239273573</v>
+        <v>0.07729755811705555</v>
       </c>
     </row>
     <row r="140">
@@ -1832,7 +1832,7 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>0.06400747809658057</v>
+        <v>0.1217694716310126</v>
       </c>
     </row>
     <row r="141">
@@ -1842,7 +1842,7 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>0.003249237909333012</v>
+        <v>0.05953447516495158</v>
       </c>
     </row>
     <row r="142">
@@ -1852,7 +1852,7 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>0.006891601974112832</v>
+        <v>0.07876347390465992</v>
       </c>
     </row>
     <row r="143">
@@ -1862,7 +1862,7 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>0.01095457079161611</v>
+        <v>0.07534914459262906</v>
       </c>
     </row>
     <row r="144">
@@ -1872,7 +1872,7 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>-0.01172636155575622</v>
+        <v>0.05896474172906571</v>
       </c>
     </row>
     <row r="145">
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>0.008510749943997324</v>
+        <v>0.06834952912331162</v>
       </c>
     </row>
     <row r="146">
@@ -1892,7 +1892,7 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>0.01850780478493851</v>
+        <v>0.1248543210505019</v>
       </c>
     </row>
     <row r="147">
@@ -1902,7 +1902,7 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>0.07066336900143327</v>
+        <v>0.1313526796932258</v>
       </c>
     </row>
     <row r="148">
@@ -1912,7 +1912,7 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>0.02449219875478914</v>
+        <v>0.102481743533756</v>
       </c>
     </row>
     <row r="149">
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>0.01627785235019467</v>
+        <v>0.08150753510551485</v>
       </c>
     </row>
     <row r="150">
@@ -1932,7 +1932,7 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>-0.08073018469173246</v>
+        <v>-0.007956633992479638</v>
       </c>
     </row>
     <row r="151">
@@ -1942,7 +1942,7 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>-0.03909776018806954</v>
+        <v>0.03879320039370419</v>
       </c>
     </row>
     <row r="152">
@@ -1952,7 +1952,7 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>-0.0209965045236273</v>
+        <v>0.04798825376203854</v>
       </c>
     </row>
     <row r="153">
@@ -1962,7 +1962,7 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>0.01278384481011321</v>
+        <v>0.07791242730741493</v>
       </c>
     </row>
     <row r="154">
@@ -1972,7 +1972,7 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>0.02358562319563971</v>
+        <v>0.08693318389168622</v>
       </c>
     </row>
     <row r="155">
@@ -1982,7 +1982,7 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>-0.005063578531840285</v>
+        <v>0.0525781351125439</v>
       </c>
     </row>
     <row r="156">
@@ -1992,7 +1992,7 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>0.005078696923287029</v>
+        <v>0.1030837654607956</v>
       </c>
     </row>
     <row r="157">
@@ -2002,7 +2002,7 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>-0.02352296887687653</v>
+        <v>0.05284598377033322</v>
       </c>
     </row>
     <row r="158">
@@ -2012,7 +2012,7 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>0.02674284965191145</v>
+        <v>0.1192188600643917</v>
       </c>
     </row>
     <row r="159">
@@ -2022,7 +2022,7 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>-0.007291852945146413</v>
+        <v>0.06140155460727074</v>
       </c>
     </row>
     <row r="160">
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>-0.02000361237673458</v>
+        <v>0.0540012946878027</v>
       </c>
     </row>
     <row r="161">
@@ -2042,7 +2042,7 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>0.01757700004839443</v>
+        <v>0.09836267156395981</v>
       </c>
     </row>
     <row r="162">
@@ -2052,7 +2052,7 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>0.04844231423103914</v>
+        <v>0.1302164602768214</v>
       </c>
     </row>
     <row r="163">
@@ -2062,7 +2062,7 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>0.03887396976564968</v>
+        <v>0.1048553182285748</v>
       </c>
     </row>
     <row r="164">
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>0.03227877719360387</v>
+        <v>0.1210550849514415</v>
       </c>
     </row>
     <row r="165">
@@ -2082,7 +2082,7 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>0.09355960946776445</v>
+        <v>0.1662433738547678</v>
       </c>
     </row>
     <row r="166">
@@ -2092,7 +2092,7 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>0.1086616109253241</v>
+        <v>0.1613572170575115</v>
       </c>
     </row>
     <row r="167">
@@ -2102,7 +2102,7 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>0.05614579405748284</v>
+        <v>0.1330432384673813</v>
       </c>
     </row>
     <row r="168">
@@ -2112,7 +2112,7 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>0.03705482874146782</v>
+        <v>0.1299655629800239</v>
       </c>
     </row>
     <row r="169">
@@ -2122,7 +2122,7 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>0.09813006666615506</v>
+        <v>0.1641668759709364</v>
       </c>
     </row>
     <row r="170">
@@ -2132,7 +2132,7 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>0.09392714108807226</v>
+        <v>0.1442284410346871</v>
       </c>
     </row>
     <row r="171">
@@ -2142,7 +2142,7 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>0.03825756232819232</v>
+        <v>0.0977597114217106</v>
       </c>
     </row>
     <row r="172">
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>-0.00378451148127347</v>
+        <v>0.08407880627354822</v>
       </c>
     </row>
     <row r="173">
@@ -2162,7 +2162,7 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>0.05630242580913187</v>
+        <v>0.1493597199229072</v>
       </c>
     </row>
     <row r="174">
@@ -2172,7 +2172,7 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>0.01011381259460437</v>
+        <v>0.08760175214087271</v>
       </c>
     </row>
     <row r="175">
@@ -2182,7 +2182,7 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>-0.009150166096025553</v>
+        <v>0.08256841487011993</v>
       </c>
     </row>
     <row r="176">
@@ -2192,7 +2192,7 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>0.0267350880067784</v>
+        <v>0.1058461833450871</v>
       </c>
     </row>
     <row r="177">
@@ -2202,7 +2202,7 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>0.06168738611467623</v>
+        <v>0.1315318062727732</v>
       </c>
     </row>
     <row r="178">
@@ -2212,7 +2212,7 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>0.05956120196173525</v>
+        <v>0.1386039672277436</v>
       </c>
     </row>
     <row r="179">
@@ -2222,7 +2222,7 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>0.03092083563292638</v>
+        <v>0.120222355035167</v>
       </c>
     </row>
     <row r="180">
@@ -2232,7 +2232,7 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>0.04033756095997386</v>
+        <v>0.1520014722048921</v>
       </c>
     </row>
     <row r="181">
@@ -2242,7 +2242,7 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>0.07428266606243698</v>
+        <v>0.142134762380499</v>
       </c>
     </row>
     <row r="182">
@@ -2252,7 +2252,7 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>0.04838369063459676</v>
+        <v>0.1266276711074555</v>
       </c>
     </row>
     <row r="183">
@@ -2262,7 +2262,7 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>0.03438172819318333</v>
+        <v>0.1008134568857521</v>
       </c>
     </row>
     <row r="184">
@@ -2272,7 +2272,7 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>0.05571781213519272</v>
+        <v>0.116258860481734</v>
       </c>
     </row>
     <row r="185">
@@ -2282,7 +2282,7 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>0.05031773723047893</v>
+        <v>0.1133366947474047</v>
       </c>
     </row>
     <row r="186">
@@ -2292,7 +2292,7 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>0.0705563702725116</v>
+        <v>0.1568749256411663</v>
       </c>
     </row>
     <row r="187">
@@ -2302,7 +2302,7 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>0.05474861294447973</v>
+        <v>0.1374900167566993</v>
       </c>
     </row>
     <row r="188">
@@ -2312,7 +2312,7 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>0.02806046333286931</v>
+        <v>0.1201887624479803</v>
       </c>
     </row>
     <row r="189">
@@ -2322,7 +2322,7 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>0.07322330821991084</v>
+        <v>0.1513346625096868</v>
       </c>
     </row>
     <row r="190">
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>-0.004540457755758934</v>
+        <v>0.08302472320882942</v>
       </c>
     </row>
     <row r="191">
@@ -2342,7 +2342,7 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>0.06389940372277814</v>
+        <v>0.1287678992513648</v>
       </c>
     </row>
     <row r="192">
@@ -2352,7 +2352,7 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>0.03190243882347907</v>
+        <v>0.1177372288719086</v>
       </c>
     </row>
     <row r="193">
@@ -2362,7 +2362,7 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>0.07656256873416446</v>
+        <v>0.153300526457676</v>
       </c>
     </row>
     <row r="194">
@@ -2372,7 +2372,7 @@
         </is>
       </c>
       <c r="B194" t="n">
-        <v>0.06012813602757571</v>
+        <v>0.1177376473402968</v>
       </c>
     </row>
     <row r="195">
@@ -2382,7 +2382,7 @@
         </is>
       </c>
       <c r="B195" t="n">
-        <v>0.02404543551626515</v>
+        <v>0.1110914174423722</v>
       </c>
     </row>
     <row r="196">
@@ -2392,7 +2392,7 @@
         </is>
       </c>
       <c r="B196" t="n">
-        <v>0.020710376599842</v>
+        <v>0.07379274171878188</v>
       </c>
     </row>
     <row r="197">
@@ -2402,7 +2402,7 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>0.06158265155070207</v>
+        <v>0.1406638018644583</v>
       </c>
     </row>
     <row r="198">
@@ -2412,7 +2412,7 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>0.06435348133916988</v>
+        <v>0.1389736296070937</v>
       </c>
     </row>
     <row r="199">
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="B199" t="n">
-        <v>0.09216004363259971</v>
+        <v>0.1538864894621149</v>
       </c>
     </row>
     <row r="200">
@@ -2432,7 +2432,7 @@
         </is>
       </c>
       <c r="B200" t="n">
-        <v>0.08395012668624177</v>
+        <v>0.1535209059814488</v>
       </c>
     </row>
     <row r="201">
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="B201" t="n">
-        <v>0.08462099062452175</v>
+        <v>0.1488962122605666</v>
       </c>
     </row>
     <row r="202">
@@ -2452,7 +2452,7 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>0.09773330793961936</v>
+        <v>0.1729693538549766</v>
       </c>
     </row>
     <row r="203">
@@ -2462,7 +2462,7 @@
         </is>
       </c>
       <c r="B203" t="n">
-        <v>0.1100992181117292</v>
+        <v>0.1863369073085016</v>
       </c>
     </row>
     <row r="204">
@@ -2472,7 +2472,7 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>0.05856931363665756</v>
+        <v>0.1508489798161578</v>
       </c>
     </row>
     <row r="205">
@@ -2482,7 +2482,7 @@
         </is>
       </c>
       <c r="B205" t="n">
-        <v>0.06751105382964306</v>
+        <v>0.1633924199376928</v>
       </c>
     </row>
     <row r="206">
@@ -2492,7 +2492,7 @@
         </is>
       </c>
       <c r="B206" t="n">
-        <v>0.0881289943485084</v>
+        <v>0.1687688999577725</v>
       </c>
     </row>
     <row r="207">
@@ -2502,7 +2502,7 @@
         </is>
       </c>
       <c r="B207" t="n">
-        <v>0.05273431624833226</v>
+        <v>0.1380456106748451</v>
       </c>
     </row>
     <row r="208">
@@ -2512,7 +2512,7 @@
         </is>
       </c>
       <c r="B208" t="n">
-        <v>0.05617525871612304</v>
+        <v>0.140732112601801</v>
       </c>
     </row>
     <row r="209">
@@ -2522,7 +2522,7 @@
         </is>
       </c>
       <c r="B209" t="n">
-        <v>0.04868402370523402</v>
+        <v>0.1437703885528589</v>
       </c>
     </row>
     <row r="210">
@@ -2532,7 +2532,7 @@
         </is>
       </c>
       <c r="B210" t="n">
-        <v>0.03491706010810197</v>
+        <v>0.1282747769669602</v>
       </c>
     </row>
     <row r="211">
@@ -2542,7 +2542,7 @@
         </is>
       </c>
       <c r="B211" t="n">
-        <v>0.09037785476346648</v>
+        <v>0.1817134515946646</v>
       </c>
     </row>
     <row r="212">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B212" t="n">
-        <v>0.08380537218045045</v>
+        <v>0.1752972250799032</v>
       </c>
     </row>
     <row r="213">
@@ -2562,7 +2562,7 @@
         </is>
       </c>
       <c r="B213" t="n">
-        <v>0.06820193374568627</v>
+        <v>0.1401400663911407</v>
       </c>
     </row>
     <row r="214">
@@ -2572,7 +2572,7 @@
         </is>
       </c>
       <c r="B214" t="n">
-        <v>0.06581741050913063</v>
+        <v>0.1454661591626029</v>
       </c>
     </row>
     <row r="215">
@@ -2582,7 +2582,7 @@
         </is>
       </c>
       <c r="B215" t="n">
-        <v>0.03470707945986889</v>
+        <v>0.106107978161734</v>
       </c>
     </row>
     <row r="216">
@@ -2592,7 +2592,7 @@
         </is>
       </c>
       <c r="B216" t="n">
-        <v>-0.01737471864536496</v>
+        <v>0.04609421400945005</v>
       </c>
     </row>
     <row r="217">
@@ -2602,7 +2602,7 @@
         </is>
       </c>
       <c r="B217" t="n">
-        <v>-0.02364581973949005</v>
+        <v>0.05000848815954114</v>
       </c>
     </row>
     <row r="218">
@@ -2612,7 +2612,7 @@
         </is>
       </c>
       <c r="B218" t="n">
-        <v>-0.01961423652641287</v>
+        <v>0.05981257698066093</v>
       </c>
     </row>
     <row r="219">
@@ -2622,7 +2622,7 @@
         </is>
       </c>
       <c r="B219" t="n">
-        <v>0.03709487106838193</v>
+        <v>0.1168816512293679</v>
       </c>
     </row>
     <row r="220">
@@ -2632,7 +2632,7 @@
         </is>
       </c>
       <c r="B220" t="n">
-        <v>-0.01206529918583633</v>
+        <v>0.05193066274018302</v>
       </c>
     </row>
     <row r="221">
@@ -2642,7 +2642,7 @@
         </is>
       </c>
       <c r="B221" t="n">
-        <v>-0.002993352836436992</v>
+        <v>0.02689369691811145</v>
       </c>
     </row>
     <row r="222">
@@ -2652,7 +2652,7 @@
         </is>
       </c>
       <c r="B222" t="n">
-        <v>0.01496419109981427</v>
+        <v>-0.001419464393729958</v>
       </c>
     </row>
     <row r="223">
@@ -2662,7 +2662,7 @@
         </is>
       </c>
       <c r="B223" t="n">
-        <v>0.007626508778853336</v>
+        <v>0.04469161272081169</v>
       </c>
     </row>
     <row r="224">
@@ -2672,7 +2672,7 @@
         </is>
       </c>
       <c r="B224" t="n">
-        <v>0.01867855532478373</v>
+        <v>0.06497267986849617</v>
       </c>
     </row>
     <row r="225">
@@ -2682,7 +2682,7 @@
         </is>
       </c>
       <c r="B225" t="n">
-        <v>0.02238482140222203</v>
+        <v>0.08375228490583883</v>
       </c>
     </row>
     <row r="226">
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="B226" t="n">
-        <v>-0.01371617643703146</v>
+        <v>0.0704821036807414</v>
       </c>
     </row>
     <row r="227">
@@ -2702,7 +2702,7 @@
         </is>
       </c>
       <c r="B227" t="n">
-        <v>0.02920961658441761</v>
+        <v>0.09217585433057168</v>
       </c>
     </row>
     <row r="228">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B228" t="n">
-        <v>0.03617964462939821</v>
+        <v>0.1141109641497964</v>
       </c>
     </row>
     <row r="229">
@@ -2722,7 +2722,7 @@
         </is>
       </c>
       <c r="B229" t="n">
-        <v>-0.0339298025384648</v>
+        <v>0.03825918243860574</v>
       </c>
     </row>
     <row r="230">
@@ -2732,7 +2732,7 @@
         </is>
       </c>
       <c r="B230" t="n">
-        <v>0.02770042683252373</v>
+        <v>0.09798638385650542</v>
       </c>
     </row>
     <row r="231">
@@ -2742,7 +2742,7 @@
         </is>
       </c>
       <c r="B231" t="n">
-        <v>0.03044651117729529</v>
+        <v>0.09960044645537847</v>
       </c>
     </row>
     <row r="232">
@@ -2752,7 +2752,7 @@
         </is>
       </c>
       <c r="B232" t="n">
-        <v>0.03910590407847565</v>
+        <v>0.1115038224066145</v>
       </c>
     </row>
     <row r="233">
@@ -2762,7 +2762,7 @@
         </is>
       </c>
       <c r="B233" t="n">
-        <v>0.009274271226662899</v>
+        <v>0.08219027637480594</v>
       </c>
     </row>
     <row r="234">
@@ -2772,7 +2772,7 @@
         </is>
       </c>
       <c r="B234" t="n">
-        <v>0.02675697787026449</v>
+        <v>0.09483343520594083</v>
       </c>
     </row>
     <row r="235">
@@ -2782,7 +2782,7 @@
         </is>
       </c>
       <c r="B235" t="n">
-        <v>0.02081777854364559</v>
+        <v>0.1044907415836252</v>
       </c>
     </row>
     <row r="236">
@@ -2792,7 +2792,7 @@
         </is>
       </c>
       <c r="B236" t="n">
-        <v>0.02554740312153892</v>
+        <v>0.1211508641961772</v>
       </c>
     </row>
     <row r="237">
@@ -2802,7 +2802,7 @@
         </is>
       </c>
       <c r="B237" t="n">
-        <v>-0.009054060001155552</v>
+        <v>0.06295733931568996</v>
       </c>
     </row>
     <row r="238">
@@ -2812,7 +2812,7 @@
         </is>
       </c>
       <c r="B238" t="n">
-        <v>-0.005664807872786318</v>
+        <v>0.06823268478985423</v>
       </c>
     </row>
     <row r="239">
@@ -2822,7 +2822,7 @@
         </is>
       </c>
       <c r="B239" t="n">
-        <v>0.003941662258666627</v>
+        <v>0.07289186733950831</v>
       </c>
     </row>
     <row r="240">
@@ -2832,7 +2832,7 @@
         </is>
       </c>
       <c r="B240" t="n">
-        <v>0.0178335918138326</v>
+        <v>0.08497988388719864</v>
       </c>
     </row>
     <row r="241">
@@ -2842,7 +2842,7 @@
         </is>
       </c>
       <c r="B241" t="n">
-        <v>0.07048816082698546</v>
+        <v>0.1490721506240903</v>
       </c>
     </row>
     <row r="242">
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="B242" t="n">
-        <v>0.06201858599562073</v>
+        <v>0.1383483319497831</v>
       </c>
     </row>
     <row r="243">
@@ -2862,7 +2862,7 @@
         </is>
       </c>
       <c r="B243" t="n">
-        <v>0.04496483427738921</v>
+        <v>0.1358846504172823</v>
       </c>
     </row>
     <row r="244">
@@ -2872,7 +2872,7 @@
         </is>
       </c>
       <c r="B244" t="n">
-        <v>0.04040989274064886</v>
+        <v>0.1065876654241806</v>
       </c>
     </row>
     <row r="245">
@@ -2882,7 +2882,7 @@
         </is>
       </c>
       <c r="B245" t="n">
-        <v>0.06631031704024615</v>
+        <v>0.1519390302310055</v>
       </c>
     </row>
     <row r="246">
@@ -2892,7 +2892,7 @@
         </is>
       </c>
       <c r="B246" t="n">
-        <v>0.01795528945059968</v>
+        <v>0.1069772931060699</v>
       </c>
     </row>
     <row r="247">
@@ -2902,7 +2902,7 @@
         </is>
       </c>
       <c r="B247" t="n">
-        <v>0.01268022208800952</v>
+        <v>0.1022604590809616</v>
       </c>
     </row>
     <row r="248">
@@ -2912,7 +2912,7 @@
         </is>
       </c>
       <c r="B248" t="n">
-        <v>0.03873381483349331</v>
+        <v>0.1246578601583586</v>
       </c>
     </row>
     <row r="249">
@@ -2922,7 +2922,7 @@
         </is>
       </c>
       <c r="B249" t="n">
-        <v>0.03607462149915758</v>
+        <v>0.1202020416084059</v>
       </c>
     </row>
     <row r="250">
@@ -2932,7 +2932,7 @@
         </is>
       </c>
       <c r="B250" t="n">
-        <v>-0.0002892761332883598</v>
+        <v>0.1090429645386166</v>
       </c>
     </row>
     <row r="251">
@@ -2942,7 +2942,7 @@
         </is>
       </c>
       <c r="B251" t="n">
-        <v>0.03026595447891134</v>
+        <v>0.1307313787387466</v>
       </c>
     </row>
     <row r="252">
@@ -2952,7 +2952,7 @@
         </is>
       </c>
       <c r="B252" t="n">
-        <v>0.01431479646648236</v>
+        <v>0.0791140854077705</v>
       </c>
     </row>
     <row r="253">
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="B253" t="n">
-        <v>0.006112807190205327</v>
+        <v>0.08445249976970924</v>
       </c>
     </row>
     <row r="254">
@@ -2972,7 +2972,7 @@
         </is>
       </c>
       <c r="B254" t="n">
-        <v>0.02077478247025953</v>
+        <v>0.09894096563831491</v>
       </c>
     </row>
     <row r="255">
@@ -2982,7 +2982,7 @@
         </is>
       </c>
       <c r="B255" t="n">
-        <v>0.04062904002608231</v>
+        <v>0.1115320106387383</v>
       </c>
     </row>
     <row r="256">
@@ -2992,7 +2992,7 @@
         </is>
       </c>
       <c r="B256" t="n">
-        <v>0.03905374575940404</v>
+        <v>0.113781252367069</v>
       </c>
     </row>
     <row r="257">
@@ -3002,7 +3002,7 @@
         </is>
       </c>
       <c r="B257" t="n">
-        <v>0.03391219707359996</v>
+        <v>0.1073801904460567</v>
       </c>
     </row>
     <row r="258">
@@ -3012,7 +3012,7 @@
         </is>
       </c>
       <c r="B258" t="n">
-        <v>0.02224014417420901</v>
+        <v>0.08819224062185464</v>
       </c>
     </row>
     <row r="259">
@@ -3022,7 +3022,7 @@
         </is>
       </c>
       <c r="B259" t="n">
-        <v>-0.01096594087522659</v>
+        <v>0.05721367271357409</v>
       </c>
     </row>
     <row r="260">
@@ -3032,7 +3032,7 @@
         </is>
       </c>
       <c r="B260" t="n">
-        <v>-0.02382637204767051</v>
+        <v>0.06288583996265508</v>
       </c>
     </row>
     <row r="261">
@@ -3042,7 +3042,7 @@
         </is>
       </c>
       <c r="B261" t="n">
-        <v>0.02941551563976432</v>
+        <v>0.09112433023548884</v>
       </c>
     </row>
     <row r="262">
@@ -3052,7 +3052,7 @@
         </is>
       </c>
       <c r="B262" t="n">
-        <v>0.04392402894205488</v>
+        <v>0.1091588371819008</v>
       </c>
     </row>
     <row r="263">
@@ -3062,7 +3062,7 @@
         </is>
       </c>
       <c r="B263" t="n">
-        <v>-0.006963026516531127</v>
+        <v>0.07123341133352959</v>
       </c>
     </row>
     <row r="264">
@@ -3072,7 +3072,7 @@
         </is>
       </c>
       <c r="B264" t="n">
-        <v>0.006129435024441829</v>
+        <v>0.0955028738819314</v>
       </c>
     </row>
     <row r="265">
@@ -3082,7 +3082,7 @@
         </is>
       </c>
       <c r="B265" t="n">
-        <v>0.003301680257541809</v>
+        <v>0.05995752675811383</v>
       </c>
     </row>
     <row r="266">
@@ -3092,7 +3092,7 @@
         </is>
       </c>
       <c r="B266" t="n">
-        <v>-0.01328176973939634</v>
+        <v>0.07831771282633813</v>
       </c>
     </row>
     <row r="267">
@@ -3102,7 +3102,7 @@
         </is>
       </c>
       <c r="B267" t="n">
-        <v>0.000407498682303311</v>
+        <v>0.07884312331194687</v>
       </c>
     </row>
     <row r="268">
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="B268" t="n">
-        <v>0.03037376496287997</v>
+        <v>0.08758238302264817</v>
       </c>
     </row>
     <row r="269">
@@ -3122,7 +3122,7 @@
         </is>
       </c>
       <c r="B269" t="n">
-        <v>-0.02995842634461138</v>
+        <v>0.05385095771401829</v>
       </c>
     </row>
     <row r="270">
@@ -3132,7 +3132,7 @@
         </is>
       </c>
       <c r="B270" t="n">
-        <v>-0.0335514482363732</v>
+        <v>0.05285550410375837</v>
       </c>
     </row>
     <row r="271">
@@ -3142,7 +3142,7 @@
         </is>
       </c>
       <c r="B271" t="n">
-        <v>0.00621240007344588</v>
+        <v>0.06941499336899448</v>
       </c>
     </row>
     <row r="272">
@@ -3152,7 +3152,7 @@
         </is>
       </c>
       <c r="B272" t="n">
-        <v>0.02891708090737019</v>
+        <v>0.102671330713419</v>
       </c>
     </row>
     <row r="273">
@@ -3162,7 +3162,7 @@
         </is>
       </c>
       <c r="B273" t="n">
-        <v>-0.007995255110984633</v>
+        <v>0.08931110729012799</v>
       </c>
     </row>
     <row r="274">
@@ -3172,7 +3172,7 @@
         </is>
       </c>
       <c r="B274" t="n">
-        <v>-0.04799978660016406</v>
+        <v>0.02850614367408462</v>
       </c>
     </row>
     <row r="275">
@@ -3182,7 +3182,7 @@
         </is>
       </c>
       <c r="B275" t="n">
-        <v>-0.06061887092930023</v>
+        <v>0.01361943585465417</v>
       </c>
     </row>
     <row r="276">
@@ -3192,7 +3192,7 @@
         </is>
       </c>
       <c r="B276" t="n">
-        <v>-0.09207838463906413</v>
+        <v>-0.01189524845970572</v>
       </c>
     </row>
     <row r="277">
@@ -3202,7 +3202,7 @@
         </is>
       </c>
       <c r="B277" t="n">
-        <v>-0.05305794187990266</v>
+        <v>0.008454230942118562</v>
       </c>
     </row>
     <row r="278">
@@ -3212,7 +3212,7 @@
         </is>
       </c>
       <c r="B278" t="n">
-        <v>-0.0723510313540726</v>
+        <v>-0.001517422773567944</v>
       </c>
     </row>
     <row r="279">
@@ -3222,7 +3222,7 @@
         </is>
       </c>
       <c r="B279" t="n">
-        <v>-0.05379024639535086</v>
+        <v>0.003795686221884333</v>
       </c>
     </row>
     <row r="280">
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="B280" t="n">
-        <v>-0.1372843787346107</v>
+        <v>-0.07397070230265861</v>
       </c>
     </row>
     <row r="281">
@@ -3242,7 +3242,7 @@
         </is>
       </c>
       <c r="B281" t="n">
-        <v>-0.09378955605016703</v>
+        <v>-0.02425705182599718</v>
       </c>
     </row>
     <row r="282">
@@ -3252,7 +3252,7 @@
         </is>
       </c>
       <c r="B282" t="n">
-        <v>-0.09718510175781829</v>
+        <v>-0.05440646341113938</v>
       </c>
     </row>
     <row r="283">
@@ -3262,7 +3262,7 @@
         </is>
       </c>
       <c r="B283" t="n">
-        <v>-0.139741009229609</v>
+        <v>-0.0681810152710178</v>
       </c>
     </row>
     <row r="284">
@@ -3272,7 +3272,7 @@
         </is>
       </c>
       <c r="B284" t="n">
-        <v>-0.05899044330981713</v>
+        <v>0.002144535964995156</v>
       </c>
     </row>
     <row r="285">
@@ -3282,7 +3282,7 @@
         </is>
       </c>
       <c r="B285" t="n">
-        <v>-0.1123273715915952</v>
+        <v>-0.02591752165508762</v>
       </c>
     </row>
     <row r="286">
@@ -3292,7 +3292,7 @@
         </is>
       </c>
       <c r="B286" t="n">
-        <v>-0.1570744485848857</v>
+        <v>-0.0908001269796354</v>
       </c>
     </row>
     <row r="287">
@@ -3302,7 +3302,7 @@
         </is>
       </c>
       <c r="B287" t="n">
-        <v>-0.08200204163306214</v>
+        <v>-0.01924362110358424</v>
       </c>
     </row>
     <row r="288">
@@ -3312,7 +3312,7 @@
         </is>
       </c>
       <c r="B288" t="n">
-        <v>-0.1589705280451822</v>
+        <v>-0.08960597308073409</v>
       </c>
     </row>
     <row r="289">
@@ -3322,7 +3322,7 @@
         </is>
       </c>
       <c r="B289" t="n">
-        <v>-0.1090120254623208</v>
+        <v>-0.03660322657739999</v>
       </c>
     </row>
     <row r="290">
@@ -3332,7 +3332,7 @@
         </is>
       </c>
       <c r="B290" t="n">
-        <v>-0.1913969331370459</v>
+        <v>-0.1267334940099689</v>
       </c>
     </row>
     <row r="291">
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="B291" t="n">
-        <v>-0.07483582647336273</v>
+        <v>-0.0145687325432555</v>
       </c>
     </row>
     <row r="292">
@@ -3352,7 +3352,7 @@
         </is>
       </c>
       <c r="B292" t="n">
-        <v>-0.09661317260478833</v>
+        <v>-0.04510914024105495</v>
       </c>
     </row>
     <row r="293">
@@ -3362,7 +3362,7 @@
         </is>
       </c>
       <c r="B293" t="n">
-        <v>-0.04884678153181107</v>
+        <v>0.03049141909583032</v>
       </c>
     </row>
     <row r="294">
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="B294" t="n">
-        <v>-0.007532216925794149</v>
+        <v>0.05647358984293351</v>
       </c>
     </row>
     <row r="295">
@@ -3382,7 +3382,7 @@
         </is>
       </c>
       <c r="B295" t="n">
-        <v>-0.03546732966890337</v>
+        <v>0.05493706670330096</v>
       </c>
     </row>
     <row r="296">
@@ -3392,7 +3392,7 @@
         </is>
       </c>
       <c r="B296" t="n">
-        <v>-0.03499874100656256</v>
+        <v>0.04495993043291184</v>
       </c>
     </row>
     <row r="297">
@@ -3402,7 +3402,7 @@
         </is>
       </c>
       <c r="B297" t="n">
-        <v>-0.04293917208666088</v>
+        <v>0.01754818608724443</v>
       </c>
     </row>
     <row r="298">
@@ -3412,7 +3412,7 @@
         </is>
       </c>
       <c r="B298" t="n">
-        <v>-0.05194373268740287</v>
+        <v>0.01646016453218863</v>
       </c>
     </row>
     <row r="299">
@@ -3422,7 +3422,7 @@
         </is>
       </c>
       <c r="B299" t="n">
-        <v>-0.04907132673083469</v>
+        <v>0.02779789080369952</v>
       </c>
     </row>
     <row r="300">
@@ -3432,7 +3432,7 @@
         </is>
       </c>
       <c r="B300" t="n">
-        <v>-0.05847277881659715</v>
+        <v>0.007955678118274084</v>
       </c>
     </row>
     <row r="301">
@@ -3442,7 +3442,7 @@
         </is>
       </c>
       <c r="B301" t="n">
-        <v>-0.08089232685272854</v>
+        <v>-0.01082081882681065</v>
       </c>
     </row>
     <row r="302">
@@ -3452,7 +3452,7 @@
         </is>
       </c>
       <c r="B302" t="n">
-        <v>-0.08416936129197365</v>
+        <v>0.004143932492476562</v>
       </c>
     </row>
     <row r="303">
@@ -3462,7 +3462,7 @@
         </is>
       </c>
       <c r="B303" t="n">
-        <v>-0.04560117434468067</v>
+        <v>0.02829451143270431</v>
       </c>
     </row>
     <row r="304">
@@ -3472,7 +3472,7 @@
         </is>
       </c>
       <c r="B304" t="n">
-        <v>-0.06785490233690471</v>
+        <v>-0.02270055330784555</v>
       </c>
     </row>
     <row r="305">
@@ -3482,7 +3482,7 @@
         </is>
       </c>
       <c r="B305" t="n">
-        <v>-0.09534037927406035</v>
+        <v>-0.02109182724017675</v>
       </c>
     </row>
     <row r="306">
@@ -3492,7 +3492,7 @@
         </is>
       </c>
       <c r="B306" t="n">
-        <v>-0.0841805377843991</v>
+        <v>0.001408214811918251</v>
       </c>
     </row>
     <row r="307">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B307" t="n">
-        <v>-0.03626067174594195</v>
+        <v>0.02330571501896051</v>
       </c>
     </row>
     <row r="308">
@@ -3512,7 +3512,7 @@
         </is>
       </c>
       <c r="B308" t="n">
-        <v>-0.03775884717035356</v>
+        <v>0.03865705439885384</v>
       </c>
     </row>
     <row r="309">
@@ -3522,7 +3522,7 @@
         </is>
       </c>
       <c r="B309" t="n">
-        <v>-0.01467712165697406</v>
+        <v>0.04068288529063787</v>
       </c>
     </row>
     <row r="310">
@@ -3532,7 +3532,7 @@
         </is>
       </c>
       <c r="B310" t="n">
-        <v>-0.0189793880326185</v>
+        <v>0.03651584446264657</v>
       </c>
     </row>
     <row r="311">
@@ -3542,7 +3542,7 @@
         </is>
       </c>
       <c r="B311" t="n">
-        <v>0.02955831155958867</v>
+        <v>0.1131836361743378</v>
       </c>
     </row>
     <row r="312">
@@ -3552,7 +3552,7 @@
         </is>
       </c>
       <c r="B312" t="n">
-        <v>0.01605778331102347</v>
+        <v>0.1004920010321755</v>
       </c>
     </row>
     <row r="313">
@@ -3562,7 +3562,7 @@
         </is>
       </c>
       <c r="B313" t="n">
-        <v>-0.01502159415027775</v>
+        <v>0.05336945861062729</v>
       </c>
     </row>
     <row r="314">
@@ -3572,7 +3572,7 @@
         </is>
       </c>
       <c r="B314" t="n">
-        <v>-0.006783232909565261</v>
+        <v>0.06983829623998299</v>
       </c>
     </row>
     <row r="315">
@@ -3582,7 +3582,7 @@
         </is>
       </c>
       <c r="B315" t="n">
-        <v>0.02815062590691823</v>
+        <v>0.08736721588390294</v>
       </c>
     </row>
     <row r="316">
@@ -3592,7 +3592,7 @@
         </is>
       </c>
       <c r="B316" t="n">
-        <v>-0.00301911048413071</v>
+        <v>0.08499671560561325</v>
       </c>
     </row>
     <row r="317">
@@ -3602,7 +3602,7 @@
         </is>
       </c>
       <c r="B317" t="n">
-        <v>0.04302860160791106</v>
+        <v>0.101139771158868</v>
       </c>
     </row>
     <row r="318">
@@ -3612,7 +3612,7 @@
         </is>
       </c>
       <c r="B318" t="n">
-        <v>-0.002592792468797342</v>
+        <v>0.07660606297745269</v>
       </c>
     </row>
     <row r="319">
@@ -3622,7 +3622,7 @@
         </is>
       </c>
       <c r="B319" t="n">
-        <v>-0.01967181927474349</v>
+        <v>0.05295490776998921</v>
       </c>
     </row>
     <row r="320">
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="B320" t="n">
-        <v>0.01671574797454052</v>
+        <v>0.09218471856977976</v>
       </c>
     </row>
     <row r="321">
@@ -3642,7 +3642,7 @@
         </is>
       </c>
       <c r="B321" t="n">
-        <v>0.01415647005384393</v>
+        <v>0.08019027036396022</v>
       </c>
     </row>
     <row r="322">
@@ -3652,7 +3652,7 @@
         </is>
       </c>
       <c r="B322" t="n">
-        <v>-0.02976672212741442</v>
+        <v>0.02745785165652914</v>
       </c>
     </row>
     <row r="323">
@@ -3662,7 +3662,7 @@
         </is>
       </c>
       <c r="B323" t="n">
-        <v>-0.02125375977186951</v>
+        <v>0.05993124706343832</v>
       </c>
     </row>
     <row r="324">
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="B324" t="n">
-        <v>0.002386923777575976</v>
+        <v>0.08768264514850645</v>
       </c>
     </row>
     <row r="325">
@@ -3682,7 +3682,7 @@
         </is>
       </c>
       <c r="B325" t="n">
-        <v>0.04080452071356934</v>
+        <v>0.1282221839394839</v>
       </c>
     </row>
     <row r="326">
@@ -3692,7 +3692,7 @@
         </is>
       </c>
       <c r="B326" t="n">
-        <v>-0.01038765775829268</v>
+        <v>0.06899555629929954</v>
       </c>
     </row>
     <row r="327">
@@ -3702,7 +3702,7 @@
         </is>
       </c>
       <c r="B327" t="n">
-        <v>-0.004793942520444542</v>
+        <v>0.0681483299288701</v>
       </c>
     </row>
     <row r="328">
@@ -3712,7 +3712,7 @@
         </is>
       </c>
       <c r="B328" t="n">
-        <v>0.03268116026408632</v>
+        <v>0.1139044624053766</v>
       </c>
     </row>
     <row r="329">
@@ -3722,7 +3722,7 @@
         </is>
       </c>
       <c r="B329" t="n">
-        <v>0.01847894502964963</v>
+        <v>0.1055871990579826</v>
       </c>
     </row>
     <row r="330">
@@ -3732,7 +3732,7 @@
         </is>
       </c>
       <c r="B330" t="n">
-        <v>0.02300666983626538</v>
+        <v>0.1185410877451901</v>
       </c>
     </row>
     <row r="331">
@@ -3742,7 +3742,7 @@
         </is>
       </c>
       <c r="B331" t="n">
-        <v>0.03647745754752559</v>
+        <v>0.126839730642883</v>
       </c>
     </row>
     <row r="332">
@@ -3752,7 +3752,7 @@
         </is>
       </c>
       <c r="B332" t="n">
-        <v>0.04371504639249287</v>
+        <v>0.1268524459832766</v>
       </c>
     </row>
     <row r="333">
@@ -3762,7 +3762,7 @@
         </is>
       </c>
       <c r="B333" t="n">
-        <v>0.04994539386210688</v>
+        <v>0.1400041322768548</v>
       </c>
     </row>
     <row r="334">
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="B334" t="n">
-        <v>0.05929926302776056</v>
+        <v>0.1458632756624713</v>
       </c>
     </row>
     <row r="335">
@@ -3782,7 +3782,7 @@
         </is>
       </c>
       <c r="B335" t="n">
-        <v>0.05063012246043196</v>
+        <v>0.1360123016319466</v>
       </c>
     </row>
     <row r="336">
@@ -3792,7 +3792,7 @@
         </is>
       </c>
       <c r="B336" t="n">
-        <v>0.06505882871248721</v>
+        <v>0.1375128886218444</v>
       </c>
     </row>
     <row r="337">
@@ -3802,7 +3802,7 @@
         </is>
       </c>
       <c r="B337" t="n">
-        <v>-0.02675782477677177</v>
+        <v>0.06549050978943366</v>
       </c>
     </row>
   </sheetData>
